--- a/news_data/2016_09.xlsx
+++ b/news_data/2016_09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,99 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 2015 관광수입 4조7천억...면세점 최대 지분</t>
+  </si>
+  <si>
+    <t>제주도 관광객 카드 사용액, 연평균 20%씩 증가</t>
+  </si>
+  <si>
+    <t>제주도 관광, 20대·여성이 주도…쇼핑·음식점 소비 집중</t>
+  </si>
+  <si>
+    <t>행자부-제주도, 제주스마트관광 활성화 위해 '맞손'</t>
+  </si>
+  <si>
+    <t>'엠카운트다운', 10월 제주도서 개최…관광 콘텐츠 경쟁력 UP</t>
+  </si>
+  <si>
+    <t>[뉴스pick] 중국인 범죄에 떨고 있는 제주도…"관광객 범죄 중 70% 차지"</t>
+  </si>
+  <si>
+    <t>잇따른 제주도 중국인 관광객 강력범죄에 "무사증 폐지" 여론↑</t>
+  </si>
+  <si>
+    <t>[천자춘추] 제주도 무비자 관광제도의 문제점</t>
+  </si>
+  <si>
+    <t>50대 중국인 관광객, 제주도 성당에서 60대 여성에게 칼부림</t>
+  </si>
+  <si>
+    <t>제주도의회 "외국인 관광객 범죄 강력 대책 필요"</t>
+  </si>
+  <si>
+    <t>제주도에서 중국인 관광객 8명이 식당 주인 집단 폭행</t>
+  </si>
+  <si>
+    <t>제주도-행자부, 정부3.0으로 제주 스마트 관광 구현</t>
+  </si>
+  <si>
+    <t>노동당 "제주도의회, 오라관광단지 사업 동의 거부해야"</t>
+  </si>
+  <si>
+    <t>중국, 제주도 집단폭력 관광객 8명 블랙리스트 등재추진</t>
+  </si>
+  <si>
+    <t>중국 관광당국, 제주도 여주인 폭행 유커 '블랙리스트' 올린다</t>
+  </si>
+  <si>
+    <t>강력범죄부터 경범죄, 추태까지... 제주도는 지금 中 관광객 때문에 몸살</t>
+  </si>
+  <si>
+    <t>제주도, 추석연휴 관광객대책상황실 운영</t>
+  </si>
+  <si>
+    <t>[사설]돈벌이 관광에 주민 삶 망가지는 제주도</t>
+  </si>
+  <si>
+    <t>더민주 제주도당, 오라관광지구 지하수 위법 의혹</t>
+  </si>
+  <si>
+    <t>“제주도 무비자 그만” 무차별 중국관광객 폭행에 분노</t>
+  </si>
+  <si>
+    <t>서산시, '관광활성화 과제 발굴'을 위한 제주도 방문</t>
+  </si>
+  <si>
+    <t>서산시, 제주도서 관광활성화 워크숍 개최</t>
+  </si>
+  <si>
+    <t>中관광객 때문에 제주도 용두암 몸살…무슨 일이</t>
+  </si>
+  <si>
+    <t>제주도맛집, 용두암 관광까지 원스톱</t>
+  </si>
+  <si>
+    <t>”중국 관광객, 제주도 용두암 깨서 가져갔다”</t>
+  </si>
+  <si>
+    <t>제주도-JTA, 추석 특별관광안내소 운영</t>
+  </si>
+  <si>
+    <t>"지난해 제주도 관광객 카드실적 2.3兆…외국인 관광객 중엔 中 비중 85.9%"</t>
+  </si>
+  <si>
+    <t>中 관광객 요우커, 제주도서 집단 폭행?… '술' 때문에</t>
+  </si>
+  <si>
+    <t>제주도 개방형스마트 관광 서비스 플랫폼 구축</t>
+  </si>
+  <si>
+    <t>"용 숭상하는 중국인 관광객, 제주도 용두암 깨서 가져가"</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 日골프 미디어 초청 팸투어 실시</t>
+  </si>
+  <si>
     <t>제주도내 '마을관광' 콘텐츠 좋지만 활용은 미흡</t>
   </si>
   <si>
@@ -43,43 +136,112 @@
     <t>제주도관광협회, 사회복지단체 나눔활동</t>
   </si>
   <si>
-    <t>"지난해 제주도 관광객 카드실적 2.3兆…외국인 관광객 중엔 中 비중 85.9%"</t>
-  </si>
-  <si>
     <t>더민주 제주도당 "오라관광 지하수 개발은 위법"</t>
   </si>
   <si>
     <t>제주도, 스마트 관광서비스 플랫폼 구축 사업 착수</t>
   </si>
   <si>
-    <t>제주도내 '마을관광' 콘텐츠 좋지만 활용은 미흡 &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도내 '마을관광' 콘텐츠 좋지만 활용은 미흡 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제주도내 '마을관광' 콘텐츠 좋지만 활용은 미흡 기자명 김봉철 기자 입력 2016.09.06 17:46 수정 2016.09.06 19:55 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 6일 제주웰컴센터 3층 회의실에서 열린 '2016 신규 농산어촌 관광상품 개발 대상마을 선정평가'를 위한 회의가 진행된 가운데 다양한 의견이 제시됐다. 김봉철 기자융복합 관광상품 개발 3년차에도 모객·상설화 부족업계-마을 시각차 해소, 홍보 등 행정지원 필요 지적양질의 농어촌 관광콘텐츠를 개발하는 사업이 추진되고 있지만 실제 여행상품 개발까지 과제가 적지 않은 것으로 나타났다. 제주도와 제주도관광협회는 지난 2014년부터 매년 1억원 가량을 투입해 '1·2·3차 산업 융복합 관광상품' 개발 사업을 추진하고 있다.올해의 경우 지난해 선정된 명도암참살이마을과 예래생태마을, 낙천리 아홉굿의자마을을 대상으로 팜팜버스를 운영하면서 홍보효과를 기대하고 있다. 이는 다음카카오를 통해 예약을 받고, 도관광협회가 매월 첫째 토요일에 버스를 운영해 관광객들의 마을 체험을 지원하는 시범적인 프로그램이다.하지만 6일 제주웰컴센터 3층 회의실에서 열린 '2016 신규 농산어촌 관광상품 개발 대상마을 선정평가'에 참석한 업계 관계자들은 "이번 사업이 올해 3년차를 맞고 있음에도 여행사 상품개발이라는 정착단계까지는 갈 길이 멀다"는 지적을 내놨다.특히 상품성을 갖추기 위한 규모화가 아직까지 미흡하다는 목소리가 높았다.지난 한 해 마을당 방문객 수가 110명 수준인 데다, 이마저도 타 지역 관광객 비중은 절반에 불과했다. 홍보 부족으로 15명 이상 모객이 여의치 않다보니 매달 1회 운영하는 수준에 그치기 때문이다. 마을과 여행사간 시각차도 여행상품 개발의 걸림돌이 되고 있다.여행사들은 수익 확보를 위해 요리·자연해설 등 체험 전문 인력과 상설 프로그램을 요구하고 있지만 마을 입장에서는 일정 규모 이상의 관광객이 담보되지 않은 상황에서 상근 인력 채용에 난색을 표하고 있다.이에 따라 현재보다 마을체험 횟수를 확대하고, 일정 수의 관광객들을 유치하기 위한 전국적인 홍보 확대 등 지원 노력이 더 필요하다는 지적이다.도내 업계 관계자는 "도내 마을들의 콘텐츠는 좋지만 방문객들이 시간과 인원 제약을 떠나 즐길 수 있도록 상설화하는 게 관건"이라며 "이를 위해 체험을 주중 운영으로 확대하기 위한 행정의 지원 노력과 함께, 마을들도 생업에 종사하지 않는 어르신들을 해설사로 활용하는 예래마을의 예를 참고할 필요가 있다"고 말했다.한편 도관광협회는 지난 7월부터 청수리·무릉2리·온평리·신흥2리 등 4개 마을을 대상으로 현지답사와 전문가 평가를 거쳐 오는 12월 1개 마을을 추가로 선정한다. 김봉철 기자 bckim@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 해양관광 특성화 지지부진 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 해양관광 특성화 지지부진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 해양관광 특성화 지지부진 기자명 김경필 기자 입력 2016.09.01 17:03 수정 2016.09.01 20:57 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 2010년 마리나항 8곳·피셔리나항 6곳 개발 추진민간투자 유치 한계…2차 계획 개선책 마련 과제제주도가 해양관광 특성화 계획에 따라 마리나항과 피셔리나항 개발사업을 추진했으나 투자 유치에 한계를 보이면서 개선이 요구되고 있다. 도는 지난 2010년 해양관광 특성화 5개년 계획을 수립, 제주시 도두·김녕·이호항과 서귀포시 중문·성산신양·강정·화순·서귀포항 등 8개항을 마리나항으로 육성키로 했다. 또 제주시 협재·신창·용수·예초항과 서귀포시 하효·모슬포남항 등 6개항은 피셔리나항으로 개발한다는 계획을 세웠다. 이에 따라 마리나항을 중심으로 요트계류장과 리프트시설 등을 구축하고 피셔리나항은 어촌관광기반시설을 갖춘 공간으로 조성키로 했다. 해양관광 특성화에 소요되는 사업비는 국비 80억원과 지방비 20억원, 민자 1385억원 등 1485억원으로 추산됐다. 하지만 도가 최근 도의회에 제출한 주요업무보고 자료에 따르면 현재 운영중인 마리나항은 도두·김녕·중문항 등 3개항에 불과하다. 나머지 이호·성산신양항은 민간사업자 선정만 완료된 상태며, 강정·화순·서귀포항은 민간투자 유치중인 것으로 나타났다. 또 현재 운영중인 피셔리나항도 모슬포남항이 유일하며, 나머지 5개항은 민간투자 유치가 진행되는 것으로 파악됐다. 계획대비 실적이 부진한 사유로는 마리나항의 경우 개발에 따른 대규모 사업비 소요가 원인으로 지적됐고, 피셔리나항은 투자 대비 수익성 저조로 민간투자에 한계를 보이는 것으로 분석됐다. 이에 따라 도는 올해 제2차 요트·마리나 특성화 5개년 계획을 수립해 개선책을 마련하고 화순항을 국제수준의 마리나항으로 개발한다는 방침이어서 귀추가 주목된다. 김경필 기자 kkp2032@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 추석연휴 관광객 25만명...종합상황실 가동 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:15 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주, 시간당 20mm 내외 강한 비…기온 큰 폭으로 ‘뚝↓’ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 추석연휴 관광객 25만명...종합상황실 가동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, 추석연휴 관광객 25만명...종합상황실 가동 기자명 이승록 기자					(leerevol@naver.com) 입력 2016.09.01 14:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도가 추석연휴기간 종합상황실을 가동한다.제주도는 연휴기간인 14일부터 18일까지 5일 동안 추석연휴 종합상황실을 운영한다고 1일 밝혔다.추석연휴 종합상황실은 고창덕 특별자치행정국장을 총괄, 부서자응ㄹ 반장으로 하는 총괄반을 비롯해 관광상황반, 비상진료반, 교통.항공.항마반, 소방.재난반, 생활환경반, 급수대책반 등 7개 반으로 편성돼 운영된다.하루 120여명에 이르는 공무원들이 비상근무를 하며 각종 사건사고 및 상황발새에 신속히 대처하고, 생활민원을 처리해 관광객과 귀성객, 도민 불편을 최소화할 계획이다.추석연휴 기간에 상환반이 설치돼 가동됨에 따라 총괄반(자치행정과)는 유관기관 협조체제를 유지하며 각종 사건사고를 총괄 관리한다.관광상황반은 연휴기간 중 25만명이 넘는 관광객이 제주를 찾을 것으로 예상됨에 따라 관광객 불편사항을 파악해 대처한다.비상진료반은 연휴기간 당직 의료기관과 당번약국 상황을 관리하면서 응급환자 긴급후송체제를 유지하고, 교통.항공.항만반은 항공편과 여객선 등 교통편 운영상황을 관리하면서 교통혼잡지역을 중심으로 한 교통사고 예방활동을 벌인다.소방.재난상황반은 24시간 재난상황 관리체제를 유지하면서 각종 사건사고 발생시 신속한 응급조치 및 구조활동을 벌이게 된다.원희룡 지사는 11일 서귀포매일올래시장, 12일 제주오일시장 등을 방문하고, 연휴 첫날 14일에는 귀성객과 관광객이 집중적으로 내도할 것으로 예상되는 공항 및 부두종합상황실을 찾아 점검하고 근무자들을 격려할 계획이다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 추석 앞두고 사회복지시설에 위문품 전달 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 추석 앞두고 사회복지시설에 위문품 전달 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회, 추석 앞두고 사회복지시설에 위문품 전달 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.09.08 12:16 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 지난 5일부터 다가오는 민족 고유의 명절 추석을 맞아 도내 사회복지단체인 예향원, 제주케어하우스, 애서원, 성심요양원, 제주요양원, 제주보육원, 다문화가정센터, 늘푸른요양원을 방문하여 쌀, 생필품, 휠체어 등을 전달하는 사랑나눔활동을 전개했다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>인근지역 다양한 관광인프라 조성, 제주도 오피스텔 `킹덤레지던스 협재` 분양 - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 인근지역 다양한 관광인프라 조성, 제주도 오피스텔 `킹덤레지던스 협재` 분양 인터넷마케팅팀 입력: 2016-09-12 14:38 제주특별자치도 제주시 한림읍 옹포리 일대에 들어서는 '킹덤레지던스 협재'가 활발하게 분양 중이라는 소식이다. 최근 관광객은 물론 은퇴 후 귀촌, 자녀들의 교육을 위한 이사 등 제주도 이주민들이 증가하고 있는 가운데 이들의 수용하기 위한 레지던스나 오피스텔 등의 공급이 절실해지고 있는 실정이다. 때문에 해당 제주도 오피스텔 공급은 많은 이들의 수요를 충족시켜줄 것으로 기대를 모은다. 지하 1층~지상 8층까지 총 1개 동으로 구성돼있는 제주도 오피스텔 '킹덤레지던스 협재'는 TV, 에어컨, 냉장고 등이 갖춰진 풀옵션 빌트인으로 조성되며, 총 16개 타입으로 수요자들의 선택의 폭이 넓은 것이 특징이다. 뿐만 아니라 객실에 따라 한라산과 비양도를 조망할 수 있는 타입으로 나눠지며, 옥상라운지 바는 물론 글램핑장 및 호텔 급의 조식뷔페 운영 등으로 쾌적하고 편안한 생활이 가능해질 전망이다. 차량으로 30분 거리에 제주국제공항이 위치해있으며, 20분 거리에 제주 최대규모 복합레저 및 테마파크 시설로 들어서는 제주신화역사공원이 자리할 예정이다. 이외에도 새별오름, 하귀애월 해안도로, 곽지과물해변, 협재해변 등 제주도 내 유명 관광지와 인접해 있어 높은 관광인프라가 갖춰져 있다. 해당 제주도 오피스텔의 시행과 운영은 제주 표선킹덤타운하우스를 공급한 '제주킹덤씨티주식회사가 맡게 되며, 시공은 '휘문건설', 자금관리의 경우 '생보부동산신탁'이 맡는다. 현재 중도금 전액 무이자 혜택을 제공 중인 '킹덤레지던스 협재'는 시행사와 직접 임대차 계약을 진행해 직영 운영 되며, 년간 7.5%씩 5년 간 37.5%가 보장됨은 물론 최초 2년치 임대료 선지급과 더불어 3년 차부터는 1년치 임대료를 3년 간 선지급 받게 된다. 한편, 홍보관은 제주특별자치도 제주시 노형동 일원에 위치해 있으며, 서울 및 수도권 지역 고객의 편의를 도모하기 위해 서울 지하철 2호선 강남역 1번 출구 일대에 분양 사무실을 개설했다. cskim@dt.co.kr [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 좌표찍기·언론탄압? 대통령실, 4년전 靑대변인 본받았다면…[한기호의 정치박박] [The Car] “해외서는 G80보다 우위”…입지 공고해지는 제네시스 G70 中 20차 당대회 끝나면 대만이 위험하다[박영서의 글로벌 아이] [THE GAME] 넥슨, 신작 잭팟에 인재 채용… 흥행 영수증 잇는다 이 시간 핫클릭 김기현 폭발, 이재명 겨냥 “형수에 욕설 퍼붓고도 큰소리 뻥뻥…기가 찰 노릇” 김건희 박사 논문, 심사위원 5명 필적 "동일인 추정" 감사원 `서해피살` 문 전대통령 정조준…與 "`월북 명예살인` 규명 당연" 국힘 "MBC 尹 발언 왜곡보도후 美백악관에 이간질까지…`바이든` 자막의도 밝혀야" 가장 많이 본 기사 문화일보 핫 뉴스1이스라엘 유적지서 동로마시대 금화 무더기 발굴 2국무총리 정세균?...포항지진피해심의위, 홈페이지 방치하고 태풍 힌남노 복구 기간에 지원금 환수 절차 3“상상도 못할 말로 우릴 씹어대”…박연수, 가족 험담에 분노 4노벨 생리의학상에 ‘인류 진화’ 연구자 스반테 페보 5영국발 금융위기론 촉발한 대규모 감세 정책, 열흘 만에 ‘백기’든 신임 총리 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
+    <t>제주도 2015 관광수입 4조7천억...면세점 최대 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도 2015 관광수입 4조7천억...면세점 최대 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도 2015 관광수입 4조7천억...면세점 최대 기자명 이승록 기자					(leerevol@naver.com) 입력 2016.09.29 15:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 2015년 제주도 관광수입은 4조7000억원으로 2014년보다 5000억원이 증가했고, 제주지역 총 산출액의 17.0%를 차지하고 있는 것으로 나타났다.소매업(1조6000억원)과 숙박·음식업(1조1000억원)이 제주 관광수입의 60% 이상을 차지하고 있는 것으로 조사됐다.제주도와 한국은행 제주본부, 제주관광공사는 지난 4월 워킹그룹을 통해 마련한 '관광수입 추계결과'를 발표했다.제주지역 관광수입 통계는 지금까지 관광객 실태조사를 활용해 지출 접근법으로 추계해 왔지만, GRDP 등 지역계정에 비해 과대 추계, 부가가치 추계 불가능과 같은 문제점이 발생했다.이에 따라 제주도와 한국은행, 제주관광공사는 보다 현실을 반영한 추계를 위해 생산접근법을 활용해 관광수입을 추계하기로 했다. 관광수입은 국민소득통계의 생산접근법을 활용했는데 통계청의 경제총조사, 업종별 조사 등 지정통계와 신용카드 이용실적, 관광숙박업 운영실적 등을 이용해 관광객과 도민의 업종별 총산출액을 구한 후 합산해 추계했다.추계결과 2015년 제주 방문 관광객에 의한 관광수입은 4조7000억원으로 제주지역 총산출액의 17.0%를 차지했다. 이는 지난해 메르스 등 관광여건 악화에도 불구하고 2014년 4조2000억원 대비 10.1% 증가하는 등 최근 3년 동안 매년 두 자릿수 증가율을 유지하고 있는 것으로 조사됐다.업종별 관광수입은 소매업이 1조6000억원으로 가장 많았다. 소매업이 많을 수 밖에 없는 이유는 신라와 롯데, JDC 공항면세점 등이 소매업에 포함됐기 때문이다. 신라와 롯데면세점은 지난해 매출액 9200억원, JDC 공항면세점은 5000억원을 기록했다. 소매업에 이어 숙박·음식업이 1조1000억원, 운수업 9000억원, 예술·스포츠·여가 6000억원 순으로 나타났다.2010년에 비해 소매업(30→35.1%)과 운수업(17.3→19.7%)은 관광수입에서 늘어난 반면, 숙박 및 음식업(30.5→23.9%)은 감소했다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광객 카드 사용액, 연평균 20%씩 증가 - 조선비즈</t>
+  </si>
+  <si>
+    <t>제주도 관광, 20대·여성이 주도…쇼핑·음식점 소비 집중 TV LIVE VOD 튜브온 주요행사 채널안내 편성표 전체뉴스 MTN deep 한 발 더 깊고 한 걸음 더 넓은 뉴스 MTN hip요즘 뜨는 '힙(hip)'한 이슈 핫리포트핫라인5 생생리포트 MTN 인사이트경제에 통찰력을 더하다 MTN 기자실경제전문 기자들의 취재파일 연속 기획보도이슈를 파고드는 기획취재 연중대기획고품격 특집 다큐멘터리 여의도튜브 발칙한 경제 주식초등학교 Pick 튜브기사보다 더 깊은 이야기 TV LIVE VOD 튜브온 주요행사 채널안내 편성표 최신뉴스 금융 제주도 관광, 20대·여성이 주도…쇼핑·음식점 소비 집중 머니투데이방송 이수현 기자 입력 2016-09-27 13:21:54 가 [머니투데이방송 MTN 이수현 기자] 제주 관광 특수가 지속되고 있는 가운데 내국인들의 제주관광을 주도하고 있는 계층이 20대와 여성고객으로 나타났다. 신한카드 빅데이터 센터와 제주특별자치도, 한국은행 제주본부에서 공동으로 분석해 발표한 '카드사 빅데이터를 이용한 제주 관광객 소비 특성 분석'에 따르면 지난해 제주도 내국인 관광객 이용액은 1조 7,000억원이다. 이는 3년전 1조 1,000억원에 비해 54.5% 증가한 규모로, 특히 20대 고객의 카드소비금액 증가율이 지난 2012년 대비 95.7%로 두드러졌다. 또 여성 관광객 카드 이용액 증가율 역시 66.3%로 전체 내국인 관광객 대비 높은 증가율을 보였다.20대와 여성 제주관광객의 주 이용업종은 쇼핑과 일반대중음식, 편의점, 저가숙소 등을 선호하는 것으로 나타났다. [머니투데이방송 MTN = 이수현 기자 (shlee@mtn.co.kr)] 머니투데이방송의 기사에 대해 반론·정정추후 보도를 청구하실 분은 아래의 연락처로 연락주시길 바랍니다, 고충처리인 : 콘텐츠총괄부장 ombudsman@mtn.co.kr 02)2077-6288 MTN 기자실 경제전문 기자들의 취재파일 전체보기 Pick 튜브 기사보다 더 깊은 이야기 전체보기 많이 본 뉴스 분야별뉴스 취재와이드 MTN 기자실 Pick 튜브 바로가기 분야별뉴스 P4F MTN deep MTN hip 핫리포트 MTN 인사이트 연속 기획보도 연중대기획 MTN 기자실 Pick 튜브 여의도튜브 발칙한경제 주식초등학교 K-디펜스 월가워즈 여의도약방 니은티비 바로가기 검색 TV LIVE APP 소개 MTN YOUTUBE 회사소개 광고제휴안내 이용약관 청소년보호정책 개인정보처리방침 공시조회 (주)머니투데이방송    대표이사 유승호 (07328) 서울특별시 영등포구 여의나루로 60 (여의도동,여의도우체국) 2,4층 등록번호 : 서울 아01083    대표전화 : 02-2077-6200 기사배열책임자 콘텐츠총괄부장    청소년보호책임자 디지털기획부장 Copyright ⓒ MTN All Right Reserved</t>
+  </si>
+  <si>
+    <t>[뉴스pick] 중국인 범죄에 떨고 있는 제주도…"관광객 범죄 중 70% 차지" | SBS 뉴스 뉴스 뉴스 본문 바로가기전체 메뉴 바로가기기사 검색창 바로가기 배너 닫기 SBS뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 대메뉴 리스트 분야별 다시보기 취재파일 팟캐스트 이슈 끝까지 판다 SBS8뉴스 SDF 분야별 다시보기 취재파일 팟캐스트 이슈 멀티미디어 |비디오머그 스브스뉴스 VOICE [뉴스pick] 중국인 범죄에 떨고 있는 제주도…"관광객 범죄 중 70% 차지" 라이브 제보하기 전체 메뉴 레이어 보기 SBS 뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 SBS 뉴스 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 전체 메뉴 분야별 - 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 - 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 - 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트 - 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 - 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 - 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 - 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 문명특급 기타 - 기타 메뉴 리스트 공지사항 자유게시판 SBS 뉴스 - 소셜 미디어 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 - 연관 프로그램 앱 소개 SBS D포럼 인-잇 SBS 뉴스 - 기사 검색 검색하기 SBS 뉴스 - 라이브 생방송 라이브 제보하기 전체 메뉴 레이어 닫기 검색하기 SBS 뉴스 SBS 뉴스 - 섹션 카테고리 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 SBS 뉴스 - TV 프로그램 다시보기 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오뉴스 취재파일 취재파일 Pick 사회 [뉴스pick] 중국인 범죄에 떨고 있는 제주도…"관광객 범죄 중 70% 차지" [뉴스pick] 중국인 범죄에 떨고 있는 제주도…"관광객 범죄 중 70% 차지" 함다연 작가, 김도균 기자 함다연 작가, 김도균 기자 Seoul 이메일 보내기 작성 2016.09.22 14:31 수정 2016.09.22 17:44 조회 조회수 프린트기사본문프린트하기 글자 크기 크게보기 글자크기 작게보기 이미지 확대하기 21일 SBS 모닝와이드에서는 급증하는 중국인 범죄로 골머리를 앓고 있는 제주도의 모습을 방송했습니다. 지난 17일 오전, 제주도의 한 성당에서 기도 중이던 62살 여성 김 모 씨가 중국인 첸 모 씨가 휘두른 흉기에 찔려 숨졌습니다. 흉기에 4차례나 찔린 피해자는 이른 아침부터 남편과 기도를 하던 중 기도를 더 하기 위해 홀로 남았다 변을 당했습니다. 두 번 이혼한 피의자가 전 아내들에 대한 원한 때문에 여자에 대한 반감이 생겼다는 황당무계한 범행 동기가 전해져 온 국민을 놀라게 했는데요, 경찰은 제주도에 관광비자로 입국한 피의자가 계획적으로 이런 범행을 저지른 가능성이 큰 것으로 보고 있습니다. 성당에 흉기를 소지하고 나타난 점, 두 세 차례 사전 방문을 했고 범행 후 도주까지 3분이 채 걸리지 않은 점 등 때문입니다. 이미지 확대하기 이후 중국인 관광객 8명이 한국인 3명을 상대로 벌인 집단 폭행사건까지 발생했는데요, 식당에 술을 사서 들어와 놓고 주인아주머니가 이를 말리자 술병 등을 휘둘러 폭력을 휘두른 겁니다. 여기서 끝이 아니었습니다. 낮에는 상점 등에서 물건을 훔치고 무단횡단을 서슴없이 일삼으면서도 "신호등이 멀어 시간이 낭비되지 않냐며" 적반하장 태도를 보이기도 했습니다. 이미지 확대하기 제주도 외국인 관광객 범죄 건수는 2014년 333건에서 2015년 393건으로 증가했는데, 약 70% 정도가 중국인 범죄였다고 경찰은 밝혔습니다. 그렇다면 왜 유독 제주도가 중국인들의 '무법천지'가 된 걸까요? 제주 경찰 측은, 30일간 비자 없이 합법적 체류가 가능한 한국 내 유일한 지역인 제주도의 '무사증 제도' 때문이라고 밝혔습니다. 이처럼 '무사증 제도'를 악용해 불법 체류 및 불법취업을 목적으로 제주도에 입국하는 이들이 늘어난 것입니다. 이미지 확대하기 2002년부터 외국인 관광객 유치를 위해 시행된 이 제도가 도리어 제주도민들을 불안에 떨게 하는 상황을 만들고 있는 겁니다. 집 앞 슈퍼까지 장악한 중국인들이 무서워, 밖에 나가는 것조차 두려워한다는 아이들. 이제는 개인의 문제가 아니라 제주도민 모두의 안전을 위해서 대책 마련이 시급해 보입니다. '뉴스 픽'입니다. (사진 출처=SBS 모닝와이드 방송화면 캡처) 페이스북으로 공유하기 트위터로 공유하기 네이버로 공유하기 SNS 공유버튼 더보기 카카오톡으로 공유하기 밴드로 공유하기 카카오스토리로 공유하기 url 주소 복사하기 URL 복사하기 X닫기 주소가 복사되었습니다.원하는 곳에 붙여넣기(Ctrl+V)해주세요. 확인 이 기사의 덧글 보기 0 이 기사 좋아요 하기 25 함다연 작가, 김도균 기자 다른 기사 보기 &gt; 기자님 좋아요76239 관련 뉴스 추천 뉴스 이 시각 인기기사 만취 운전하다 잠든 신혜성…왜 남의 차 몰았나 보니 공효진, 뉴욕서 비공개 결혼…'10살 연하' 배우자 누구? "크러쉬가 악수 거절…뻔뻔한 인종 차별" 올라온 영상 "스트레스 받는다" 50대 남성, 비비탄 총 꺼내서 한 짓 동영상 기사 '배려석' 앉아있던 임산부, 다가온 노부부에게 들은 말 많이 본 뉴스 더 저널 리스트 더 저널 리스트더 보기 마부작침 마부작침더 보기 페이지 최상단으로 가기 닫기 SBS 뉴스 비디오머그 스브스뉴스 인잇 보러가기 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 앱 소개SBS 뉴스 모바일앱 다운받기 SBS D포럼 검색하기 SBS 뉴스 전체 메뉴 분야별 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트- 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 바로가기 시청자 참여리스트 공지사항 자유게시판 뉴스제보 고충처리인(방송피해신고) 열린TV시청자세상 윤리경영신고 시청자 참여 리스트 닫기 About SBS리스트 SBS PR SBS IR 채용정보 이용약관 SBS 방송편성규약 개인정보처리방침 시청자위원회 영상판매 웹광고 SBS 제작협찬 SBS 방송기술 SBS 문화사업 SBS Prism Tower 아트컬렉션 고객센터 사이트맵 어바웃 SBS 리스트 닫기 SBS Family리스트 TY홀딩스 SBS디지털뉴스랩 SBS 콘텐츠허브 SBSi SBS Plus SBS Sports SBS Golf SBS Biz SBS연예뉴스 SBS M KIZMOM SBS 인터내셔널 SBS A&amp;T SBS M&amp;C SBS 문화재단 서암학술장학재단 SBS 기술인협회 SBS 아나운서 스튜디오S SBS 패밀리 리스트 닫기 지역민영방송리스트 강원 민방 광주 방송 대구 방송 대전 방송 부산 방송 울산 방송 전주 방송 청주 방송 제주 방송 지역민영방송 리스트 닫기 웹광고 개인정보처리방침 SBS 정보 서울특별시 양천구 목동서로 161 대표이사 박정훈 방송관련문의 (02)2061-0006 뉴스기사제보 (02)2113-6000 찾아오시는 길 SBS 디지털뉴스랩 정보 서울특별시 양천구 목동서로 161 대표이사 박진호 고객센터 문의 (02)2113-6700 Email sbsdlab@sbs.co.kr 사업자 번호 344-87-00992 기사배열 원칙 책임자 : 정호선 기사배열 기본 원칙 ⓒ SBS &amp; SBS Digital News Lab all rights reserved.</t>
+  </si>
+  <si>
+    <t>잇따른 제주도 중국인 관광객 강력범죄에 "무사증 폐지" 여론↑ - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 화해 희망 사라졌다"…中반도체주, 시총 12.3조원 증발 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 이복현 "금투업계 접대비 현황 점검…시행령으로 기준도 찾겠다" 나노씨엠에스, 바이러스 사멸램프 美 알려…백악관·FDA·CDC 관계자 '참석' 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 "기후변화 선제 조치"…정부, 기술개발 로드맵 수립 착수 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 화해 희망 사라졌다"…中반도체주, 시총 12.3조원 증발 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 이복현 "금투업계 접대비 현황 점검…시행령으로 기준도 찾겠다" 나노씨엠에스, 바이러스 사멸램프 美 알려…백악관·FDA·CDC 관계자 '참석' 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 "기후변화 선제 조치"…정부, 기술개발 로드맵 수립 착수 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 잇따른 제주도 중국인 관광객 강력범죄에 "무사증 폐지" 여론↑ sns공유 더보기 잇따른 제주도 중국인 관광객 강력범죄에 "무사증 폐지" 여론↑ 머니투데이 김유진 기자 기자 더보기 sns공유 더보기 VIEW 5,380 2016.09.19 11:31 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 제주 중국인 관광객 범죄 2012년 89건→2015년 260건…'1등 공신' 무사증 제도에 대한 비판 여론 증가 지난 17일 오전 8시45분쯤 제주시 연동의 한 성당에서 기도 중이던 김모(62,여)씨에게 흉기를 휘두르고 달아난 중국인 첸모(59)씨가 도주한 지 7시간 만에 경찰에 검거돼 이날 오후 6시40분쯤 제주서부경찰서에 들어서고 있다. /사진=뉴스1 제주도에 무비자 입국한 중국인 관광객들이 한국인을 대상으로 강력 범죄를 잇달아 저지르면서 논란이 증폭되고 있다. 제주도민들은 외국인이 비자 없이 손쉽게 제주에 입국할 수 있는 무사증 제도를 폐지해 달라는 온라인 청원을 발의하는 등 대책을 요구하고 나섰다. 지난 18일 포털사이트 다음 아고라 청원 게시판에는 '제주도 무비자입국에서 비자입국으로 전환해주세요!'라는 제목의 이슈 청원이 발의됐다. 서명운동은 1만 명을 목표로 진행되고 있으며, 청원이 발의된 지 하루 만에 9000명을 돌파해 목표 달성을 목전에 두고 있다. 지난 18일 포털사이트 다음 아고라 청원 게시판에는 '제주도 무비자입국에서 비자입국으로 전환해주세요!'라는 제목의 이슈 청원. /사진=다음 아고라 청원 게시판 캡처이들은 제주도 중국인 관광객 증가의 1등 공신이라고 불리는 '무사증 제도'에 대한 폐지를 요구하고 있다. 청원을 올린 누리꾼은 "우리의 소중한 관광자원인 제주도가 중국인들 무비자 입국으로 무법천지가 된 지 오래"라며 "관광 수입보다 국민의 안전이 최우선"이라고 주장했다. 특히 중국인이 많이 몰리는 제주시 연동, 노형동 일대 주민들은 불안으로 술렁이는 모습을 보이고 있는 것으로 전해졌다. 위 지역은 중국인 범죄가 빈발해 경찰이 '외사치안안전구역'으로 설정해 특별 관리하고 있는 곳들이다. 제주도 내 중국인 증가에 따른 범죄 증가는 이들의 불안을 증폭시키고 있는 주요 원인이다. 현재 제주도에는 등록 외국인, 불법 체류자, 무사증입국 관광객 등 최소 3만 명의 중국인이 머물고 있는 것으로 추정되고 있다. 제주지방경찰청에 따르면 중국인 범죄는 △2012년 89건 △2013년 134건 △2014년 194건 △2015년 260건으로 증가해왔으며 올해는 지난 7월 말까지 총 240건을 기록했다. 쏟아지는 도민들의 우려에 대해 원희룡 제주지사는 19일 오전 MBC '신동호의 시선집중'에 출연해 "이러한 사고를 막을 대책이 무엇인지에 대해 매우 심각하게 받아들이고 있다"며 "무비자 제도는 제주를 국제적 관광휴양지로 만들어나가는 데 있어서 매우 중요한 역할을 하기 때문에 종합적인 검토가 필요하다"고 밝혔다. 이어 "다른 나라들의 경우에도 무비자를 운영하면서도 부작용들을 걸러낼 수 있는 여러가지 지혜를 짜내고 있는 걸로 알고 있기 때문에 우리도 이번 기회에 늦었지만 더 늦기 전에 여러 가지 종합적인 보완책을 마련해야 한다고 본다"고 덧붙였다. 앞서 제주도는 제주 중국총영사관에 재발 방지 대책 마련을 요청했으며, 중국 당국은 지난 9일 밤 제주시 연동의 한 음식점에서 발생한 여주인 집단 폭행 사건 피의자들을 '여행 비문명행위 기록'(블랙리스트)에 올릴 수 있다는 입장을 밝혔다고 중국 언론들이 보도했다. 한편 제주서부경찰서는 지난 17일 오전 8시45분쯤 제주시 연동에 있는 한 성당에 침입해 기도 중이던 김모(61·여)씨의 가슴과 복부를 흉기로 찌르고 달아난 혐의(살인)로 중국인 첸모(50)씨에 대한 구속영장을 18일 신청했다. 김씨는 사건 발생 직후 병원으로 후송됐지만 18일 오전 사망했다. 첸씨는 경찰 조사에서 "바람을 피고 도망간 전 부인들에 대한 원한이 있었는데 성당에서 여성이 혼자 기도를 하고 있는 것을 보고 갑자기 전 부인들이 생각나서 홧김에 범행했다"고 진술했으나, 경찰은 입국 직후 흉기를 구매한 뒤 성당에 이를 가져간 것 등으로 미루어 계획 범죄라고 보고 수사를 벌이고 있다. 지난 9일 밤에는 제주시 연동의 한 음식점에서 중국인 관광객 8명이 여주인 안모(53·여)씨를 집단 폭행했고, 지난 5월에는 관광가이드로 일하던 중국인 쉬모(33)씨가 평소에 알고 지내던 20대 중국인 여성을 흉기로 살해한 뒤 돈을 뺏고 시신을 유기한 혐의(강도살인 및 사체유기)로 구속됐다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% 김유진 yoojin@mt.co.kr 머니투데이 문화부 김유진 기자입니다. 기자의 다른기사 "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 채권시장 전문가들이 오는 12일 열리는 금융통화위원회(금통위)에서 한국은행이 기준금리를 0.5%p(포인트) 올리는 이른바 "빅스텝"을 단행할 것으로 내다보는 것으로 나타났다. 한은이 빅스텝 인상에 나선다면 지난 7월 금통위에 이어 역대 두 번째다. 빅스텝이 현실화되면 국내 기준금리는 현행 연 2.5%에서 3.0%로 오른다.7일 머니투데이가 증권사 애널리스트 10명을 대상으로 조사한 결과, 10명 모두 한은이 오는 12일 기준금리를 0.5%p 올릴 것으로 예상했다. 금통위 내에서 "0.25%p 인상"으로 소수의견이 있을 것이란 답변은... 코스피 -2%, 코스닥 -3%…"언제까지 내려가" 개미들 울상 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 원/달러 환율, 4거래일만에 1430원 재돌파 단독 맞춤 패키지로 K원전 수출한다 "빚내 집사라"던 9년 전처럼…얼어붙은 부동산 매수심리 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "밀크티 싸다 기뻐했죠? 우유없다" 中폭로남 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 사회 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 '화물차 음주 사고' 재판받던 중 또 무면허 음주운전…'감형'받은 이유 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 이전 다음 박수홍 인터넷뱅킹 ID '조카 이름+생일'…"父 횡령 말도 안된다" "흉기가 없어 아쉽다" 박수홍 父가 오후 조사에서 한 말 '116억 횡령혐의' 박수홍 친형, 구속기한 D-1…석방 가능성은 박수홍 가장 원하는 것은 "어머니와 관계 회복"…父, 추가 폭행 우려 "박수홍, 母와 관계회복 원한다" 발언 사실 아니었나 박수홍, 父폭행 충격에 실신→다음날 녹화…뜻밖의 현장 분위기 '유퀴즈' 출연 전 그알PD, 주가조작 혐의 구속영장 청구 "박수홍, 응급실 실려 갈때…폭행한 父·형수는 식사하러 갔다" 박수홍, 폭행 당한 후 '4자통화'로 7시간 조사…"내가 돈 관리" 父 고성 "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 사회 마켓 농관원, 공공비축미곡 포대벼 매입 검사 실시 [지자체NOW]부산시, 관광객 위한 '동백전 카드' 출시…"5%할인 받으세요" 한국타이어, 발달장애 특수학교 찾아 '숲' 조성 봉사 용인시 '최대 5000만원 5년 무담보' 소상공인 프리미엄 대출 재개 모텔방서 숨진 5개월 영아…부모 장시간 방치 정황에 경찰수사 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 JW생명과학, 국내 첫 전용량 종합영양수액제 자동화 라인 가동 SK이노베이션, 이익 개선 방향은 여전-NH투자증권 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 역술가도 한숨 쉰 박수홍 사주 "아들 죽고 母 일어선다" 박수홍, 父 폭행 후 속병 고백…"약물 치료, 아내와 같이 욕한다" 츄, 오은영 충격 진단→단톡방 왕따 논란…"콘서트 공지 못받아" 공감 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 비공감 최정원, 자궁내막증 진단→자궁 적출…"수술 후 더 큰 문제 발생" '쇼미' 출신 래퍼, 다이빙 사고로 전신마비…"대소변도 혼자 못봐" 송일국 삼둥이가 살던 '인천 송도 호수뷰' 아파트…매매가 얼마? "곽도원, 술상 엎고 후배 배우 비하·폭언…가족까지 괴롭혀" 주장 나와 공감 "벨 눌러 아이 깨면 환불" 황당 요청에 '주문 취소' 응징한 사장님 비공감 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 공감 이효리·이상순 저격한 전여옥 "재벌 못지 않다…꼭 카페 해야하나" 비공감 53세女 "30대 남성들이 너무 대시해"…서장훈 "이해 안돼" 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 정선희 "장례 치르는데 김건모 오빠가 김영철 쫓아냈다"… 왜? 공감 '16살' 정동원, 벌써 한강뷰 집서 자취…"부동산에 직접 전화" 비공감 정유라 6년만의 근황 "깡으로 버텼다…조민이 불쌍하다니" 눈물 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 신화 신혜성, 음주측정 거부 혐의 체포..차량 도난 의심 '충격'[공식] MoneyS 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 IZE 도경수는 '진정' 믿고 볼 만해! the300 핵에는 핵, 30년만 '전술핵 재배치' 가능성…총력 대응 나선다 theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 9 김유정 'BIFF 반가워요' 28 '아시아 스타 어워즈' ★들의 잔치 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>[천자춘추] 제주도 무비자 관광제도의 문제점 menu [천자춘추] 제주도 무비자 관광제도의 문제점 search 오피니언 사설 사설(인천) 김종구칼럼 경기만평 지지대 세상읽기 지역사회 중부권 남부권 서부권 동부권 북부권 인천 인천뉴스 인천정치 인천사회 인천경제 인천교육 정치 정치일반 정부 국회 도·의정 경기뉴스 북한국제 선거 경제 경제일반 부동산 금융·증권 소비자·유통 IT 취업·창업 사회 사회일반 사건·사고·판결 교육·시험 꿈꾸는 경기교육 환경·질병 날씨 독자서비스 지면 PDF 로그인 회원가입 Webmaster 메일 스포츠 스포츠일반 축구 야구 농구 배구 골프 kt wiz SSG 랜더스 문화 문화일반 공연·전시 출판·도서 종교 건강·의학 사람들 사람들 인사 부음 결혼 본사내방 독자권익위원회 편집위원회 알림 포토 TODAY포토 영상 경기TV 뉴스 제보톡 G-STORY 경기도 박물관 · 미술관 다시보기 퍼니점 PHOTO경기 고객센터 기사제보 카톡제보 구독신청 광고문의 출판문의 제휴문의 저작권문의 공유 close 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 핀터레스트 httpURL복사 글자크기 설정 close 가 가 가 가 가 오피니언 천자춘추 [천자춘추] 제주도 무비자 관광제도의 문제점 승인 2016-09-21 22:01 2002년부터 비자면제 제도를 도입한 제주도는 중국인 관광객에게만 한 달 동안 비자 없이 관광목적으로 방문할 수 있는 국내유일 국제관광도시다. 특히 정부는 2016년을 ‘한국방문의 해’로 선포하고 중국인 관광객 유치를 적극 지원하고 나섰다. 이를 위해 올해 말까지 중국인 단체관광 비자수수료를 면제한 데 이어, 복수사증 발급대상을 확대하고 ‘10년 유효 비자’를 최초 시행하고 있다. 그 결과 제주도의 경우 하루 2천500명에서 3천명 정도의 중국인 관광객이 찾아오는 추세다. 그런데 최근 일부 중국인 관광객들에 의한 밀입국 및 범죄가 잇따라 발생하면서 중국인 관광객에 대한 여론이 악화되고 있고 무비자입국 정책에 대한 비판여론도 심상치 않다. 금번 제주도에서 발생한 사건의 책임은 전적으로 중국인 관광객들에게 있다는 것이 수사결과 밝혀지고 있다. 그럼에도 국민여론은 무비자 관광정책에 대한 정부책임에 더 무게를 두고 심사강화를 요구하고 있다. 지금은 제도와 현실 사이에서 양쪽 모두를 만족시킬 수 있는 방안을 고심해야 할 때다. 특히 관광객 유치는 법무부만의 문제가 아니라 문화체육관광부와 외교부 등과도 긴밀히 협의해야 하는 사안이다. 여론에 따른 심사를 강화하려면 출입국 심사인원을 대폭 확충해야 한다. 방문예약제를 실시하고 있지만 인원확충 없이는 한계가 있다. 또한 관계 당국도 경제적 이익만 고려하는 관광정책을 다시 검토해 보아야 한다. 중국인 관광객 쿼터제 실시를 검토해 볼 만 하다. 과거 미국에서도 너무 많은 중국인 이민에 대해 비자로 제한한 적이 있고, 한국도 한 때 시행령으로 중국인 방문객을 일시적으로 제한한 적이 있다. 비자정책은 국가마다 차이가 있지만 한국의 경우 상호주의와 실용주의 그리고 보편주의에 의해 체류자격을 주고 있다. 다만 제주도에 한정하여 30일간의 무비자 방문을 허용하는 것은 국가 관광 정책에 의한 실용주의적 정책 일환이다. 비록 국가 간의 무비자 협정이 이루어졌다 할지라도 ‘출입국관리법’ 제7조 제3항에 의거 법무부장관은 공공질서의 유지나 국가이익에 필요하다고 인정하면 대한민국과 비자면제협정을 체결한 국가의 국민에 대해 비자면제협정의 적용을 일시 정지할 수 있다. 필자가 보기에는 사건 사고에 대한 충분한 준비 없이 경제적 이익만을 고려한 정부의 관광정책이 빚은 결과가 아닌지 반성을 해야 한다. 2015년 10월 대한민국이 비자면제 협정을 맺은 국가는 103개국이다. 또한 한국인이 비자 없이도 갈수 있는 국가가 172개 국가나 된다. 그러므로 지금보다 더 많은 사건 사고들이 빈번이 일어날 것이다. 한국인들도 국외에서 이런 일을 벌이지 않으리란 보장이 없다. 정부의 신속하고 확실한 대책을 기대한다. 신상록 성결대학교 객원교수 © 경기일보(www.kyeonggi.com), 무단전재 및 수집, 재배포금지 댓글 댓글 운영규정 회원로그인 로그인 후 이용해 주세요 0/ 400 등록 최신순 추천순 회사소개 고충처리 독자권익위원회 편집위원회 언론 윤리강령 기자 윤리강령 디지털뉴스 이용규칙 개인정보처리방침 청소년보호정책(책임자:박화선) 등록번호 : 경기 아52209등록일 : 2019년 06월 07일발행·편집인 : 신항철 수원본사 : 우)16303 경기도 수원시 장안구 경수대로 973번길 6 (송죽동) 경기일보B/D   전화 : 031-250-3333인천본사 : 우)21436 인천광역시 부평구 경인로 707   전화 : 032-439-2020 경기일보는 인터넷신문위원회 윤리강령을 준수합니다.   Copyright © 2022 경기일보. All rights reserved. 댓글 운영기준 × 경기일보 뉴스 댓글은 이용자 여러분들의 자유로운 의견을 나누는 공간입니다. 건전한 여론 형성과 원활한 이용을 위해, 아래와 같은 사항은 삭제할 수 있음을 알려드립니다. 경기일보 댓글 삭제 기준 1. 기사 내용이나 주제와 무관한 글 2. 특정 기관이나 상품을 광고·홍보하기 위한 글 3. 불량한, 또는 저속한 언어를 사용한 글 4. 타인에 대한 모욕, 비방, 비난 등이 포함된 글 5. 읽는 이로 하여금 수치심, 공포감, 혐오감 등을 느끼게 하는 글 6. 타인을 사칭하거나 아이디 도용, 차용 등 개인정보와 사생활을 침해한 글 위의 내용에 명시되어 있지 않더라도 불법적인 내용이거나 공익에 반하는 경우, 작성자의 동의없이 선 삭제조치 됩니다.</t>
+  </si>
+  <si>
+    <t>50대 중국인 관광객, 제주도 성당에서 60대 여성에게 칼부림 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 50대 중국인 관광객, 제주도 성당에서 60대 여성에게 칼부림 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 50대 중국인 관광객, 제주도 성당에서 60대 여성에게 칼부림 기자정보, 기사등록일 입력 2016-09-17 20:24 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 첸모(50)씨, "전 부인들에 대한 원한 때문에 범행 저질렀다"고 밝혀 제주의 한 성당에서 60대 여성을 흉기로 수차례 찌르고 달아난 혐의로 경찰에 붙잡힌 중국인 첸모씨가 17일 오후 제주서부경찰서로 이송되고 있다. [사진=연합뉴스] 아주경제 박상훈 기자 =제주의 한 성당에서 60대 여성을 흉기로 수차례 찌르고 달아난 중국인이 경찰에 붙잡혔다. 제주서부경찰서는 17일 오전 8시47분께 제주시 연동의 한 성당에서 김모(61·여)씨를 흉기로 찌르고 달아난 혐의로 중국인 첸모(51)씨를 체포했다고 밝혔다. 첸씨는 이날 성당에서 기도를 하고 있던 김씨의 복부를 미리 준비한 흉기로 수차례 찌른 뒤 달아났다가 7시간 만인 이날 오후 4시5분께 서귀포시 보목동에서 체포됐다. 첸씨는 "중국에 있을때 전 부인들에 대한 원한 때문에 범행을 저질렀다"며 "회개를 하기 위해 숙소 부근 교회를 찾았다가 여자가 혼자 기도하는 것을 보고 화가 나 범행을 저질렀다"고 경찰에 밝혔다.관련기사CJ제일제당 이너비 '요우커 특수'한물간 한국 기업 살리는 요우커의 힘 김씨는 제주 시내 병원으로 옮겨져 응급수술을 받았지만, 현재 생명이 위독한 상태로 알려졌다. 지난 13일 관광차 제주에 들어온 첸씨는 22일 중국으로 출국할 예정이었다. 박기남 제주서부경찰서장은 "범행이 우발적인지 계획적인지 등도 조사하고 있다"며 "이와 함께 피해 여성에 대한 지원책도 적극적으로 마련할 예정"이라고 말했다. #제주 #중국인 #칼부림 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 69월 CPI·FOMC 의사록·어닝시즌에 "불안감 증폭" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>제주도의회 "외국인 관광객 범죄 강력 대책 필요" - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도의회 "외국인 관광객 범죄 강력 대책 필요" 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 도의회 제주도의회 "외국인 관광객 범죄 강력 대책 필요" 홍수영 기자 승인 2016.09.26 17:24 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 도의회 문광위·보건위, 26일 제주도로부터 긴급현안업무 보고받아 제주특별자치도의회 문화관광스포츠위원회(위원장 김희현)가 26일 제주도로부터 긴급현안업무를 보고받고 외국인 관광객 범죄 증가에 대한 대책을 주문하고 있다. [제주일보=홍수영 기자] 제주특별자치도의회가 위험 수위를 넘고있는 외국인 관광객 범죄 문제와 관련해 강력한 법 집행과 적정 관광객 수 산출 등을 주문하고 나섰다.제주도의회 문화관광스포츠위원회(위원장 김희현, 더불어민주당·일도2동 을)는 26일 제주도로부터 ‘외국인 관광객에 의한 도민피해 방지를 위한 안전대책 및 제도개선 추진계획’에 대한 긴급현안업무 보고를 받았다.이날 김동욱 의원(새누리당·외도·이호·도두동)은 “적정한 관광객 수를 우선 파악해 향후 쓰레기, 교통, 범죄 등 예상되는 문제에 대해 검토해야 한다”며 “외국인 관광객 범죄 발생 시에는 신속한 법 집행이 이뤄질 수 있는 체계를 구축해야 한다”고 피력했다.김희현 위원장은 “제주는 세계보건기구가 인증한 국제안전도시이지만 현 상황에서 이게 맞는가”라며 “제2공항과 신항만 건설 등에 따른 관광객 증가를 지금부터 준비하지 않으면 제주는 몸살을 앓을 수밖에 없다”고 강조했다.이선화 의원(새누리당·삼도1·2,오라동)은 “여행사 가이드 등을 통해 외국인 관광객들에게 여행 정보와 함께 도내 안전과 지침, 위법행위 시 처벌 등에 대해 안내해야 한다”며 “제주시 성당 살인사건은 제주만의 문제가 아닌 만큼 국가적 차원에서 함께 관련 문제를 풀어나가야 한다”고 주문했다.김태석 의원(더불어민주당·노형동 갑)은 “무사증 제도는 폐지가 아닌 보완해야 한다”며 “외국인 관광객의 범죄에 대한 강력한 법 집행과 함께 관련 통계를 수집하고 진단을 통해 정책을 수립해야 한다”고 제언했다.답변에 나선 권영수 제주도 행정부지사는 “제주지방경찰청의 외사과 신설, 제주출입국관리사무소 인력 증원 등 방안을 논의하고 있다”며 “도민들의 안전을 지키기 위해 최선을 다하겠다”고 밝혔다.이날 도의회 보건복지안전위원회(위원장 김용범)는 제주도의 지진 안전대책과 관련, 중장기 제주형 지진방재종합계획 수립과 공공시설물 및 민간건축물 내진보강 추진 등에 대한 철저한 이행을 주문했다. 홍수영 기자  gwin1@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도에서 중국인 관광객 8명이 식당 주인 집단 폭행 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 제주도에서 중국인 관광객 8명이 식당 주인 집단 폭행 입력 2016.09.12 (15:27) 사회 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 가져온 술을 식당에서 먹는 것을 제지당했다며 식당 주인을 무차별 폭행한 중국 관객들이 무더기로 검거됐다. 제주서부경찰서는 음식점에서 업주 등을 집단 폭행한 혐의(폭력행위 등 처벌에 관한 법률 위반 및 상해)로 중국인 관광객 천모(37)씨 등 8명을 입건했다고 12일 밝혔다. 이들은 지난 9일 오후 10시 25분께 제주시 연동의 한 음식점에서 업주 안모(53·여)씨를 때려 뇌출혈 등의 상처를 입게 한 혐의를 받고 있다. 싸움을 말리는 손님 정모(28)씨 등 3명을 주먹과 발로 때려 상해를 가한 혐의도 있다. 이들 중국인은 외부에서 사 가져온 술을 음식점에서 마시려다 제지당하자 밖으로 나간 상태에서 주문한 음식값을 지불하라는 데 화가나 안씨 등을 때린 것으로 조사됐다. 경찰은 도주 가능성이 있어 천씨 등 범행 적극 가담자 5명에 대해 구속영장을 신청할 방침이며, 나머지 3명은 출국정지 조치했다. 제주도에서 중국인 관광객 8명이 식당 주인 집단 폭행 입력 2016-09-12 15:27:26 사회 가져온 술을 식당에서 먹는 것을 제지당했다며 식당 주인을 무차별 폭행한 중국 관객들이 무더기로 검거됐다. 제주서부경찰서는 음식점에서 업주 등을 집단 폭행한 혐의(폭력행위 등 처벌에 관한 법률 위반 및 상해)로 중국인 관광객 천모(37)씨 등 8명을 입건했다고 12일 밝혔다. 이들은 지난 9일 오후 10시 25분께 제주시 연동의 한 음식점에서 업주 안모(53·여)씨를 때려 뇌출혈 등의 상처를 입게 한 혐의를 받고 있다. 싸움을 말리는 손님 정모(28)씨 등 3명을 주먹과 발로 때려 상해를 가한 혐의도 있다. 이들 중국인은 외부에서 사 가져온 술을 음식점에서 마시려다 제지당하자 밖으로 나간 상태에서 주문한 음식값을 지불하라는 데 화가나 안씨 등을 때린 것으로 조사됐다. 경찰은 도주 가능성이 있어 천씨 등 범행 적극 가담자 5명에 대해 구속영장을 신청할 방침이며, 나머지 3명은 출국정지 조치했다. ■ 제보하기 ▷ 카카오톡 : 'KBS제보' 검색 ▷ 전화 : 02-781-1234 ▷ 이메일 : kbs1234@kbs.co.kr ▷ 뉴스홈페이지 : https://goo.gl/4bWbkG 기자 정보 윤창희 기자 theplay@kbs.co.kr 윤창희 기자의 기사 모음 댓글 좋아요 공유하기 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>노동당 "제주도의회, 오라관광단지 사업 동의 거부해야" &lt; 환경 &lt; 사회 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 노동당 "제주도의회, 오라관광단지 사업 동의 거부해야" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 환경 노동당 "제주도의회, 오라관광단지 사업 동의 거부해야" 기자명 이동건 기자					(dg@jejusori.net) 입력 2016.09.23 15:04 댓글 2 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 노동당 제주도당은 23일 오후 성명을 내고 “제주도의회는 오라관광단지 개발 사업 동의를 거부해야 한다”고 촉구했다. 앞서 제주도는 지난 21일 제주시 오라관광단지 환경영향평가 심의위원회를 열었다. 이날 회의에서는 위원 8명 찬성, 4명 반대로, 중국계 자본 JCC가 추진하는 357만m² 규모의 오라관광단지 조성사업이 심의를 통과했다. 노동당은 “오라관광단지는 환경자원총량 관리시스템을 적용했을 때 예정부지 대부분이 개발 불가능한 지역이다. 또 하수처리문제도 있다. 지난 3월 경관위원회는 건축고도를 15m까지 완화시켜주기도 했다”고 지적했다. 이어 “예래휴양형주거단지, 부영리조트, 신화역사공원, 송악산유원지 사업 등 갈등이 있었다. 전기차를 도입해 제주도를 환경의 섬으로 만들겠다고 강조한 원희룡 제주도지사와 도정이 환경파괴에 앞장서는 이중적인 태도를 보이고 있다”고 주장했다. 노동당은 “훼손된 자연은 되돌리기 어렵다. 도민을 위한 최소한의 개발이 아닌 자본의 돈벌이를 위해 개발사업에 특혜가 남발되고 있다”며 “제주도의회에 바란다. 도의회는 오라관광단지 조성사업을 거부해야 한다. (동의 거부가)역사적 책무를 가진 도의회의 당연한 결정”이라고 강조했다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>중국, 제주도 집단폭력 관광객 8명 블랙리스트 등재추진 | SBS 뉴스 뉴스 뉴스 본문 바로가기전체 메뉴 바로가기기사 검색창 바로가기 배너 닫기 SBS뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 대메뉴 리스트 분야별 다시보기 취재파일 팟캐스트 이슈 끝까지 판다 SBS8뉴스 SDF 분야별 다시보기 취재파일 팟캐스트 이슈 멀티미디어 |비디오머그 스브스뉴스 VOICE 중국, 제주도 집단폭력 관광객 8명 블랙리스트 등재추진 라이브 제보하기 전체 메뉴 레이어 보기 SBS 뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 SBS 뉴스 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 전체 메뉴 분야별 - 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 - 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 - 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트 - 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 - 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 - 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 - 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 문명특급 기타 - 기타 메뉴 리스트 공지사항 자유게시판 SBS 뉴스 - 소셜 미디어 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 - 연관 프로그램 앱 소개 SBS D포럼 인-잇 SBS 뉴스 - 기사 검색 검색하기 SBS 뉴스 - 라이브 생방송 라이브 제보하기 전체 메뉴 레이어 닫기 검색하기 SBS 뉴스 SBS 뉴스 - 섹션 카테고리 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 SBS 뉴스 - TV 프로그램 다시보기 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오뉴스 취재파일 취재파일 국제 중국, 제주도 집단폭력 관광객 8명 블랙리스트 등재추진 중국, 제주도 집단폭력 관광객 8명 블랙리스트 등재추진 이상엽 기자 이상엽 기자 Seoul 작성 2016.09.16 23:12 조회 조회수 프린트기사본문프린트하기 글자 크기 크게보기 글자크기 작게보기 중국 당국이 제주도에서 식당 여주인과 손님 등을 집단 폭행해 물의를 빚은 중국인 관광객 8명에 대한 블랙리스트 등재를 추진하는 등 엄중히 처리할 방침이라고 중국 언론들이 보도했습니다. 중국인민라디오방송에 따르면 중국 국가여유국 관계자는 "이 사건을 고도로 중시해 책임자를 현장에 파견해 조사를 벌이고 있다"면서 사건을 일으킨 유커들이 '여행 비문명행위 기록'에 등재될 수 있다는 입장을 밝혔습니다. 중국의 '관광객 비문명 행위에 관한 기록관리 임시규정'에는 중국 유커가 국내외 관광 도중 현지 법률·법규 위반, 공공질서와 미풍양속 위반 등을 통해 사회에 엄중한 악영향을 끼쳤을 경우 블랙리스트인 '비문명 행위기록' 명단에 올리도록 규정돼 있습니다. 제주도에 관광을 온 중국인 8명은 지난 9일 제주시의 한 음식점에서 50대 여주인을 집단 폭행하고 이를 말리던 한국인 손님에게도 폭력을 행사했습니다. 이들 가운데 천모 씨 등 5명은 구속되고 3명은 불구속 입건됐습니다. 이 사건 직후 중국은 국가여유국 서울사무소와 제주도 주재 총영사관을 중심으로 한국 당국의 협조를 받아 사건 경위 조사에 나섰습니다. 여유국 관계자는 "이번 사건을 계기로 현지 법률과 관습을 준수하고 공공질서와 미풍양속을 해치는 행위를 하지 말 것"을 자국 관광객들에게 강력히 촉구했습니다. 전 세계를 누비고 있는 중국인 관광객들 가운데 일부는 추태를 부리고 꼴불견에 가까운 몰상식한 행동으로 국제적인 망신을 사고 있습니다. 페이스북으로 공유하기 트위터로 공유하기 네이버로 공유하기 SNS 공유버튼 더보기 카카오톡으로 공유하기 밴드로 공유하기 카카오스토리로 공유하기 url 주소 복사하기 URL 복사하기 X닫기 주소가 복사되었습니다.원하는 곳에 붙여넣기(Ctrl+V)해주세요. 확인 이 기사의 덧글 보기 0 이 기사 좋아요 하기 0 관련 뉴스 추천 뉴스 이 시각 인기기사 만취 운전하다 잠든 신혜성…왜 남의 차 몰았나 보니 공효진, 뉴욕서 비공개 결혼…'10살 연하' 배우자 누구? "크러쉬가 악수 거절…뻔뻔한 인종 차별" 올라온 영상 "스트레스 받는다" 50대 남성, 비비탄 총 꺼내서 한 짓 동영상 기사 '배려석' 앉아있던 임산부, 다가온 노부부에게 들은 말 많이 본 뉴스 더 저널 리스트 더 저널 리스트더 보기 마부작침 마부작침더 보기 페이지 최상단으로 가기 닫기 SBS 뉴스 비디오머그 스브스뉴스 인잇 보러가기 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 앱 소개SBS 뉴스 모바일앱 다운받기 SBS D포럼 검색하기 SBS 뉴스 전체 메뉴 분야별 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트- 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 바로가기 시청자 참여리스트 공지사항 자유게시판 뉴스제보 고충처리인(방송피해신고) 열린TV시청자세상 윤리경영신고 시청자 참여 리스트 닫기 About SBS리스트 SBS PR SBS IR 채용정보 이용약관 SBS 방송편성규약 개인정보처리방침 시청자위원회 영상판매 웹광고 SBS 제작협찬 SBS 방송기술 SBS 문화사업 SBS Prism Tower 아트컬렉션 고객센터 사이트맵 어바웃 SBS 리스트 닫기 SBS Family리스트 TY홀딩스 SBS디지털뉴스랩 SBS 콘텐츠허브 SBSi SBS Plus SBS Sports SBS Golf SBS Biz SBS연예뉴스 SBS M KIZMOM SBS 인터내셔널 SBS A&amp;T SBS M&amp;C SBS 문화재단 서암학술장학재단 SBS 기술인협회 SBS 아나운서 스튜디오S SBS 패밀리 리스트 닫기 지역민영방송리스트 강원 민방 광주 방송 대구 방송 대전 방송 부산 방송 울산 방송 전주 방송 청주 방송 제주 방송 지역민영방송 리스트 닫기 웹광고 개인정보처리방침 SBS 정보 서울특별시 양천구 목동서로 161 대표이사 박정훈 방송관련문의 (02)2061-0006 뉴스기사제보 (02)2113-6000 찾아오시는 길 SBS 디지털뉴스랩 정보 서울특별시 양천구 목동서로 161 대표이사 박진호 고객센터 문의 (02)2113-6700 Email sbsdlab@sbs.co.kr 사업자 번호 344-87-00992 기사배열 원칙 책임자 : 정호선 기사배열 기본 원칙 ⓒ SBS &amp; SBS Digital News Lab all rights reserved.</t>
+  </si>
+  <si>
+    <t>중국 관광당국, 제주도 여주인 폭행 유커 '블랙리스트' 올린다 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 중국 관광당국, 제주도 여주인 폭행 유커 '블랙리스트' 올린다 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 중국 관광당국, 제주도 여주인 폭행 유커 '블랙리스트' 올린다 기자정보, 기사등록일 입력 2016-09-17 11:29 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 중국 유커로 가득한 서울 시내 대형 면세점 풍경. [사진=연합뉴스] 아주경제 김근정 기자 = 중국 관광 당국인 국가여유국이 제주도에서 집단폭행으로 물의를 빚은 유커(중국인 관광객) 8명을 '여행 비문명 행위자 명단'인 블랙리스트 등록 가능성을 시사했다. 중국 동방망(東方網)은 "중국 국가여유국이 15일 최근 제주도에서 발생한 유커의 식당 여주인 집단 폭행 사건을 심각하게 보고 있고 현지에 책임자를 파견해 블랙리스트 등록 여부를 파악하도록 했다"고 밝혔다고 16일 전했다. 지난 9일 제주도를 찾은 중국 유커 8명은 제주도의 한 식당에서 외부 음식 반입을 거절당하자 여주인과 종업원을 폭행해 물의를 빚었다. 식당 여주인은 뇌출혈로 입원했으며 유커 8명은 한국 경찰에 체포돼 조사를 받았다. 중국 유커의 비문명적 행위에 대한 국내외 관광지, 현지인의 불만의 목소리가 커지면서 관광 당국은 지난해 '유커 비문명 행위 기록관리 임시 규정'을 내놓고 국내외 관광시 현지 법률과 법규를 위반하고, 공공질서와 미풍양속을 해쳤을 경우 블랙리스트에 이름을 올려 집중적으로 관리하도록 했다.관련기사유커 급감에 대만 여행업계 대규모 항의시위 벌여 (르포) 서울 속 차이나타운 대림2동 가보니...상가 임대료 5년 새 네배 껑충 이달 초에는 비문명 행위를 일삼아 눈살을 찌뿌리게 하는 유커의 비행기 탑승을 제한하는 등의 강력한 제재안을 포함한 '관광행사 조례 수정초안'도 공개, 의견 수렴을 시작했다. 새 조례에는 꼴불견 유커의 공안·세관·검역·교통·금융 등 다양한 분야의 정보를 공유해 일정기간 국내외 여행은 물론 비행기 탑승을 불허할 수 있다는 내용이 포함됐다. 여행사가 정보로 제공한 외의 옵션관광, 쇼핑강요, 수수료 부과 등을 제재하는 조치도 새롭게 마련됐다. #관광 #블랙리스트 #중국 #제주도 #유커 #집단폭행 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 중국 경제 정치 사회 모바일 1中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 2국경절 연휴 마친 증시…호재 뒤늦게 반영할까 3중국 위안화 고시환율 다시 7.1위안대로 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 인사이드 차이나 중국 위안화 고시환율 다시 7.1위안대로 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 사진으로 보는 중국 중국 위안화 고시환율 다시 7.1위안대로 中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 국경절 연휴 마친 증시…호재 뒤늦게 반영할까 아주 글로벌 中國語 English 日本語 Tiếng Việt 韩企或成美国芯片新政意外受益者 Pyonyang's missile launch re-ignites debate over S. Korea's nuclear armament 韓銀、今週ビッグステップ踏み切るか・・・ 家計の利子負担6.5兆ウォン↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>더민주 제주도당, 오라관광지구 지하수 위법 의혹 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 더민주 제주도당, 오라관광지구 지하수 위법 의혹 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 더민주 제주도당, 오라관광지구 지하수 위법 의혹 제주CBS 김대휘기자 메일보내기 2016-09-06 11:41 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 더불어민주당제주도당은 제주시 오라관광단지 개발사업과 관련해 개발된 지하수 관정의 양도․양수를 통해 사용을 인정하는 것은 위법 의혹이 있다고 지적했다. 제주도는 오라관광단지 개발사업자가 사업 취소된 기존의 지하수 관정을 사용하는 것은 '사업취소 전 연장허가'와 '양도․양수 계약'을 근거로 가능하다는 입장이다. 하지만 더민주 제주도당은 6일 보도자료를 통해 "현행 제주특별자치도 특별법과 하위 법령에서는 지하수공의 소유자 명의변경 제도를 두고 있었던 구(舊) 제주도개발특별법과 달리, 그러한 제도를 두고 있지 않음으로써 지하수의 공공 자원 성격을 법률에서 명백하게 선언”하고 있다며 “오라관광단지 개발사업 승인 취소는 지하수 개발․이용 허가를 받은 목적에 따른 이용이 불가능한 경우에 해당”한다고 주장했다.더민주 제주도당은 특히 "대법원 판결 사례에서도 소유권 명의변경 제도를 두고 있던 (舊)제주도개발특별법 적용 시점에서 조차 지하수의 공공성을 근거로 소유권 이전이 성립되지 않음을 분명히 하고 있다"며 오라단지 지하수 관정 사용의 위법 가능성을 강하게 제기했다. 실제로 대법원 판결(2001)은 '자연히 용출하는 지하수나 동력장치를 사용하지 아니한 가정용 우물 또는 공동우물 및 기타 경미한 개발·이용 등 공공의 이해에 직접 영향을 미치지 아니하는 범위에 속하는 지하수의 이용은 토지소유권에 기한 것으로서 토지소유권에 부수(附隋)하여 인정되는 권리로 보아야 할 것이지만, 그 범위를 넘어선 지하수 개발·이용은 토지소유권에 부수되는 것이 아니라 지하수의 공적 수자원으로서의 성질과 기능 등을 고려하여 행정청의 허가·감시·감독·이용제한·공동이용 명령·허가취소 등 공적 관리 방법에 의한 규제를 받고 있다고 할 것이다. 따라서 이러한 규제의 범위에 속하는 지하수 개발·이용권은 토지소유권의 범위에 속하지 않는 것이므로 지하수의 개발·이용허가를 받은 후 그 토지소유권이 이전된다고 하여 허가에 의한 지하수 개발·이용권이 새로운 토지소유자에게 당연히 이전되는 것은 아니다'라고 판시하고 있다.더민주 제주도당은 "오라단지 사업과 관련하여 사업취소에 따라, 이미 사업지구내 '산지복구명령'을 내린 바 있는 원희룡 도정이 유독 지하수 관정 사용문제에 관련해서는 사업자 간의 양도․양수 계약을 근거로 이를 묵인하고 있다"며, 이는 "그 자체로 일관성이 없을 뿐만 아니라, 위법성 논란을 행정이 나서서 부추기고 있다"고 주장했다. 또 "환경단체에서도 지하수 관정 사용의 위법성을 지적했음에도 이에 대해 적극적으로 검토하기 보다는 '문제 없다'는 식의 태도만 보이고 있어, 도 행정이 일방적 사업강행이라는 과거로 회귀하고 있다"고 강하게 비판했다.더불어민주당제주도당은 "특별법 제377조제1항을 통해 제주의 지하수는 공공의 자원으로서 도지사가 관리하여야 한다고 명시해, 토지의 구성 부분이 아님을 명백히 함으로서 지하수의 공공성을 명시적으로 선언함과 아울러, 공수화 의지를 천명하고 있다"며, "지금이라도 지하수 관정허가를 취소하고 원상복구명령을 통해 개발사업의 이익 보다 자히수 자원 보존을 통한 공익과 미래가치의 우위를 분명히 해야한다"고 밝혔다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 복지장관 340만원, 청년 120만원…연금의 '세대격차' '택시 연 매출, 배달업의 1/3에 불과' 금감원 '수상한 외환거래' 이달 중 검사 마무리 [칼럼]핵위협 공포에 휩싸인 한반도 군 "北 저수지 탄도미사일, 한미 '킬 체인' 의식"…실효성은 글쎄? 제주CBS 김대휘기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>"“제주도 무비자 그만” 무차별 중국관광객 폭행에 분노"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 사용안함(뉴스속보) “제주도 무비자 그만” 무차별 중국관광객 폭행에 분노 2016.09.13 20:44 [헤럴드경제] 제주를 찾은 중국인들이 식당 주인과 주변의 한국인을 폭행한 영상이 온라인상에 공개되면서 ‘반중’ 정서로 번지는 모양새다.한 제주 언론의 페이스북 페이지에는 제주도민들의 분노 서린 의견이 계속해서 올라오고 있다.제주도 내에서 문제가 된 중국인 관광객의 몰상식한 행동들이 몇년째 쌓이자 분노가 폭발한 것이다.일부는 우근민 지사 시절 중국자본의 제주유입이 쉽도록 허용한 것을 두고 비난 의견을 내놓고 있다. 현 제주도지사인 원희룡에게 중국관광객 유입도 좋지만 도민들이 안전하게 살 수 있도록 해달라는 당부의 말도 이어지고 있다.앞서 12일 관광차 제주를 찾은 중국인 피의자 8명(남6명, 여2명)이 집단으로 식당 주인 및 만류하는 손님 등 4명을 폭행해 안와골절 및 뇌출혈(증세) 등의 상해를 입힌 혐의로 붙잡혔다. 이 장면이 담긴 게시물이 SNS를 통해 공유되면서 반중 정서가 확산됐다.onlinenews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>서산시, ‘관광활성화 과제 발굴’을 위한 제주도 방문 - 매일일보 × 정치 전체 국회·정당 대통령·대통령실 외교·안보 여의도 25시 국제일반 경제 전체 정책 산업 금융·증권 건설·부동산 유통 제약·바이오 중기·벤처 국제경제 사회 전체 행정 교육 사건·사고 법조·검찰 환경·과학 문화·체육 전체 문화일반 공연·전시 출판 스포츠·레저 관광 종교 MI특별기획 MI카드뉴스 전국 전체 서울 인천·경기 세종·충청 대구·경북 부산·경남 광주·전남 전주·전북 강원·제주 기획 전체 연중기획 특집기획 영상M S부장의 시시비비 BIZ 포커스[보도자료] 풍문레이다 전화성의 스타트~UP 2018 평창 동계올림픽 NO 재팬 피플 전체 사설 기자수첩 데스크칼럼 인터뷰 세상사람들 독자기고 동정 인사 부고 NOTICE 시작페이지로 설정 즐겨찾기 추가 2022-10-11 (화) HOME 전체기사보기 로그인 회원가입 정치 국회·정당 청와대·대통령 외교·안보 여의도 25시 주호영 "北 도발, 민주당 정권 핵무장 시간 주고 대응 안 한 결과" 주호영 "北 도발, 민주당 정권 핵무장 시간 주고 대응 안 한 결과" [매일일보 김연지 기자] 주호영 국민의힘 원내대표는 11일 연일 이어지고 있는 북한의 미사일 도발과 관련해 "모두 민주당 정권하에서 이런저런 이유로 북한이 핵 무장할 시간을 주고 ... 이재명, 한·미·일 연합훈련 "안보 자해행위"…與엔 "친일파" 강공 2022-10-11 尹 "북핵 위협 날로 심각…한미일 안보협력 바탕 견고한 대응" 2022-10-11 美서도 커지는 IRA 비판론…전기차 보조금 문제 해결될까 2022-10-10 北 보름간 7차례 미사일 도발…한·미·일 긴장속 안보협력 강화 2022-10-10 마이클 멀린 전 미 합참의장 "한반도 핵전쟁 위험 최고조" 경고 2022-10-10 北, 이례적 전투기 150대 동시 출격…우리 군도 F-35A로 대응 北, 이례적 전투기 150대 동시 출격…우리 군도 F-35A로 대응 [매일일보 김연지기자] 북한이 지난 8일 전투기 150여대를 동시 출격시켜 한·미 및 한·미·일 연합훈련에 무력시위를 한 것으로 뒤늦게 확인됐다. 대북 소식통에 따르면 북한 조선중... 경제 정책 산업 금융·증권 건설·부동산 유통 제약·보건 중기·벤처 중기부, 삼성전자‧포스코 등 6개사 ‘이달의 상생볼’ 우수사례로 선정 중기부, 삼성전자‧포스코 등 6개사 ‘이달의 상생볼’ 우수사례로 선정 [매일일보 신승엽 기자] 삼성전자, 포스코, 대상, 국민은행, 한화시스템, 우아한형제들 등 6개 기업이 ‘이달의 ‘상생볼’(자상한기업 상생협력 활동 우수사례)‘로 시범 선정됐다.중... 토요타코리아, ‘2022 토요타 서비스 캠페인’ 실시 2022-10-11 현대차·배터리업계, 정부와 美 IRA 대응방안 모색 2022-10-11 제네시스, 부산국제영화제에 ‘제네시스 브랜드 존’ 운영 2022-10-11 티웨이항공, 23일까지 ‘눈 떠보니 싱가포르’ 프로모션 실시 2022-10-11 현대로템 “국민 편익 증대 위한 고속차량 납품에 최선” 2022-10-11 한화그룹 창립 70주년···김승연 회장 “어제를 경계하고 늘 새로워지자” 한화그룹 창립 70주년···김승연 회장 “어제를 경계하고 늘 새로워지자” [매일일보 김아라 기자] 한화그룹 창립 70주년을 맞아 김승연(사진) 회장이 “어제의 한화를 경계하고 늘 새로워져야 한다”고 강조했다. 이와 함께 100년 기업으로 나아가기 위한 ... 사회 행정 교육 사건·사고 법조·검찰 환경·과학 삼육대, 공식 캐릭터 ‘수야·수호’ 공개 삼육대, 공식 캐릭터 ‘수야·수호’ 공개 [매일일보 권영현 기자] 삼육대학교는 11일 개교 116주년을 맞아 공식캐릭터인 수야(SUYA)와 수호(SUHO)를 공개했다.두 캐릭터는 삼육대 교육 이념인 ‘영(靈)·지(知)·체... 오세훈 '내곡동·용산참사' 발언 고발사건 무혐의 2022-10-07 동덕여대, 10일까지 동덕아트갤러리서 '실내디자인전공 졸업전시회' 2022-10-07 세종대, 2022년 공학교육인증 우수사례 선정 2022-10-06 [내일 날씨] 전국 흐리고 비…낮부터 '쌀쌀' 2022-10-05 보수원로 김동길 명예교수 별세…향년 94세 2022-10-05 삼육대, 2023학년도 수시모집 미술 실기고사 실시 삼육대, 2023학년도 수시모집 미술 실기고사 실시 [매일일보 권영현 기자] 삼육대학교는 지난 2일 2023학년도 아트앤디자인학과 수시모집 실기고사를 실시했다고 밝혔다.삼육대에 따르면 실기고사는 삼육대 체육관 주경기장과 제3과학관,... 문화·체육 문화일반 공연·전시 출판 스포츠·레저 관광 종교 문화재청, 국가무형문화재 궁시장 3인, 악기장 2인 보유자 인정 문화재청, 국가무형문화재 궁시장 3인, 악기장 2인 보유자 인정 [매일일보 김종혁 기자] 문화재청은 국가무형문화재 궁시장 보유자로 김성락(金成洛, 경북 예천군), 김윤경(金允炅, 경기 부천), 유세현(劉世鉉, 경기 파주) 씨를 국가무형문화재 악... 현대약품, 제147회 아트엠콘서트 현악 사중주단과 ‘로맨틱 오텀” 개최 2022-10-11 [신간] 유대인과 이스라엘을 알아가는 첫걸음 '스텝 바이 스텝 모던 히브리어' 2022-10-11 부천국제애니메이션페스티벌(BIAF2022) 개막식 사회자로 배성재 아나운서 선정 2022-10-11 영등포아트홀, 서사극 대표작 ‘사천의 선인’ 이달 28일 선봬 2022-10-10 김주형, ‘최연소’ PGA 2승 기록… 슈라이너스 칠드런스 오픈 우승 2022-10-10 한국, 브루나이 10-0으로 격파… U-17 아시안컵 본선 진출 한국, 브루나이 10-0으로 격파… U-17 아시안컵 본선 진출 [매일일보 이용 기자] 남자 U-16 축구 대표팀이 2023 AFC U-17 아시안컵 본선에 진출했다.변성환 감독이 이끄는 U-16 대표팀은 9일(한국시간) 우즈베키스탄 타슈켄트의... MI특별기획 [기획]분업구조 붕괴…갈수록 멀어지는 한중 경제 [기획]분업구조 붕괴…갈수록 멀어지는 한중 경제 [매일일보 이재영 기자]한중 무역 분업구조가 점차 붕괴되는 양상이다. 최근 잇따라 중장기 대규모 투자 계획을 발표한 삼성, SK 등 대기업의 전략에서 미국과 국내 투자는 부각됐지만... [기획]한중 30년, 中 진출기업 실적 내리막길 타나 2022-09-15 [기획] 중국서 밀린 갤럭시, 해외서도 폴더블 격돌 2022-09-15 [기획]현대차, 녹색 신차로 중국 새길 모색 2022-09-15 [기획] 중국 큰손 기다리는 '면세업계' 2022-09-12 [기획] ‘독이 든 성배’로 전락한 中…“기술유출 공포감도” 2022-09-12 [기획] 갈림길에 선 韓‧中관계…소비재 기업도 긴장 [기획] 갈림길에 선 韓‧中관계…소비재 기업도 긴장 [매일일보 이용 기자] 한·중 수교 30주년을 맞이한 가운데, 양국 정부의 수교 내용에 따라 국내 기업의 대중국 사업이 다시 활기를 띌 수 있을 것이란 전망이 나온다.12일 정치권... MI카드뉴스 [카드뉴스] 2030 부산엑스포, 대체 뭐길래? [카드뉴스] 2030 부산엑스포, 대체 뭐길래? [매일일보 여이레 기자·그래픽 오지영 기자] [카드뉴스] 창사 이래 초유의 사태…포스코 태풍 피해 복구 ‘총력전’ 2022-09-22 [카드뉴스] P2P업계 “규제완화” 한목소리 2022-09-14 [카드뉴스] 폭우가 만들어낸 영화보다 참혹했던 ‘반지하 비극’ 2022-08-29 [MI카드뉴스] 역대 최악의 침수차 사태…보상은? 2022-08-17 [카드뉴스] ‘125조’ 규모 금융민생안정 2022-08-08 [카드뉴스] 멸종위기 1급 ‘나팔고둥’ 잡지마세요 [카드뉴스] 멸종위기 1급 ‘나팔고둥’ 잡지마세요 [매일일보 이용 기자·그래픽 김현아 기자] 전국 서울 인천·경기 세종·충청 대구·경북 부산·경남 광주·전남 전주·전북 강원·제주 서대문구·금산군 다양한 정책 분야 교류 협력 맞손 서대문구·금산군 다양한 정책 분야 교류 협력 맞손 [매일일보 송미연 기자] 서대문구가 이달 5일 금산인삼관 회의실에서 금산군과 교류 협력을 위한 양해각서(MOU)를 체결했다고 11일 밝혔다. 이에 따라 두 지자체는 복지 사각지대 ... 강북구, ‘특정제품 선정심사위원회’ 확대 운영 2022-10-11 강서구, 12일 ‘2040 도시발전기본계획 공청회’ 개최 2022-10-11 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 2022-10-11 서산시 가로림만, 최상의 생태 공간으로 거듭 나 2022-10-11 3년 만에 돌아온 '마포 새우젓'…오감이 풍성 2022-10-11 연천군농업인단체협회, 취약계층 위해 백미 100포 기부 연천군농업인단체협회, 취약계층 위해 백미 100포 기부 [매일일보 윤석진 기자] 연천군농업인단체협회는 연천군청을 방문, 관내 취약계층을 위해 백미 100포(10kg)를 기탁했다.11일 군 관계자는 연천군농업인단체협회에서 연천쌀 소비촉진... 기획 안랩, 다양한 행사에 친환경 요소 적극 도입해 환경경영 실천 안랩, 다양한 행사에 친환경 요소 적극 도입해 환경경영 실천 [매일일보 박효길 기자] 안랩이 최근 진행한 크고 작은 행사에서 다양한 방식으로 친환경 요소를 적극 도입해 행사 쓰레기 배출을 최소화하는 등 환경경영을 실천하고 있다.11일 안랩에... LG유플러스-하나은행, 아동의 올바른 디지털 금융 습관 형성 돕다 2022-10-11 이천 화재현장서 환자 지킨 故 현은경 간호사에게 ‘LG 의인상’ 수여 2022-10-10 KT스카이라이프, 장애인 휠체어 지원 사업 ‘Move with 스카이라이프&amp;HCN’ 진행 2022-10-06 현대오토에버, 폐그물 재활용 ‘앞치마 만들기’ 봉사활동 2022-10-05 네오플, 제주 저소득 조손가정 위탁아동 지원 5천만원 후원 2022-10-04 카카오메이커스-카카오브레인, ‘세계 동물의 날’ 기부 프로젝트 진행 카카오메이커스-카카오브레인, ‘세계 동물의 날’ 기부 프로젝트 진행 [매일일보 박효길 기자] 카카오의 임팩트 커머스 카카오메이커스와 카카오브레인이 ‘세계 동물의 날’을 맞아 멸종 위기 동물 보호에 힘을 보탠다.카카오메이커스와 카카오브레인은 4일 세... 피플 사설 기자수첩 데스크칼럼 인터뷰 세상사람들 독자기고 동정 인사 부고 [전문가 기고] 거래정상화를 위한 실효성 있는 방안이 필요하다 [전문가 기고] 거래정상화를 위한 실효성 있는 방안이 필요하다 가파른 금리인상으로 시작된 부동산시장 빙하기가 생각보다 심각하다. 그간 집값이 많이 상승했기 때문에 어느 정도 조정이 되는 것은 정상이지만 속도가 너무 빠르다. 급히 먹은 떡이 체... [건강칼럼] 피부과 인기 시술 '스킨부스터', 부작용 줄이려면? 2022-10-11 사노피, 혈우 환자의 마음 채움 위한 세바시 협업 강연 2022-10-11 [인사] 중소벤처기업부 2022-10-11 [기자수첩] 법인세 인하는 ‘부자감세’가 아니다 2022-10-11 [기자수첩] 금융위, ‘P2P 연계투자’ 해답 제시해야 2022-10-10 [데스크칼럼] 집값 하락 확산, 270만가구 주택공급 문제없나 [데스크칼럼] 집값 하락 확산, 270만가구 주택공급 문제없나 집값 하락세가 빠르게 확산하고 있는 가운데 한국은행이 오는 12일 금융통화위원회를 열어 기준금리를 결정한다. 전문가들은 한은 금통위가 이번에 기준금리를 0.5%p 올리는 빅스텝을 ... 지면보기 검색버튼 기사검색 검색 상세검색 닫기 이전 다음 서산시, ‘관광활성화 과제 발굴’을 위한 제주도 방문 페이스북 트위터 카카오스토리 기사공유하기 상태바 HOME 전국 세종·충청 서산시, ‘관광활성화 과제 발굴’을 위한 제주도 방문 민옥선 기자 승인 2016.09.11 11:10 댓글 0 페이스북 트위터 카카오스토리 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 서산시 방문단이 기념촬영을 했다. 사진=서산시청 제공[매일일보 민옥선 기자] 서산시가 관광활성화의 과제 발굴을 위해 제주도를 방문했다.시에 따르면 지난 9일부터 10일까지 관련 부서 실·국장 및 직원과 우종재 서산시의회의장을 비롯해 시의원들로 구성된 방문단이 제주도의 다양한 관광문화와 자원을 살폈다고 11일 밝혔다.이번 방문은 내년 4월 서산 대산항과 중국 롱청시 룡앤항간 국제여객선 취항을 앞두고 중국관광객이 대거 유입될 것으로 전망됨에 따라 중국관광객의 선호도 1위로 꼽힌 제주도의 벤치마킹으로 관광 인프라 구축을 위한 아이디어를 확보하기 위해 추진됐다.우선 시 방문단은 현지에서 워크숍을 개최하고 제주도 관광개발 사례를 통한 서산시 관광정책의 발전방향을 모색하기 위한 자유로운 의견을 나눴으며 제주도가 자랑하는 대표적인 관광명소인 제주항공우주박물관, 탐나라공화국, 에코랜드테마파크 등을 방문해 창조관광 우수사례 등을 견학했다.시는 이번 워크숍에서 도출된 의견과 제주도 자연경관에 상상과 역발상으로 관광자원을 조성한 제주도의 우수사례를 바탕으로 새로운 관광콘텐츠 발굴에 총력을 기울일 계획이며 지역 국회의원과 협조체계를 구축해 국회차원의 관심과 지원을 적극 요청할 예정이다.시 관계자는“이번 제주도 벤치마킹은 서산 관광 인프라 구축의 방향을 설정하는 의미 있는 방문이 됐다”며“이번 결과를 바탕으로 내년 서산 대산항과 중국 롱청시 룡얜항간 국제여객선 취항에 발 맞춰 창의적인 관광 정책 수립에 힘을 쏟을 계획이라”고 말했다. 저작권자 © 매일일보 무단전재 및 재배포 금지 트윗하기 민옥선 기자 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기 인기기사 [기자수첩] ‘블루아카이브’ 등급상향에 침묵하면 안 될 이유 [기자수첩] ‘블루아카이브’ 등급상향에 침묵하면 안 될 이유 중부권 랜드마크 된 대전신세계…1년간 매출 8000억원 달성 강소슬 기자 강원대학교 ‘2022년 백령대동제’ 3년 만에 대면 개최 황경근 기자 카카오게임즈표 블록체인 ‘보라’, 하반기 공략 시동 박효길 기자 신풍제약 잇따른 악재… 코로나 치료제로 부진 털어낼까 이용 기자 ‘애플페이’ 韓 상륙에 떠는 카드업계 홍석경 기자 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 베스트 클릭 뉴스 1北 보름간 7차례 미사일 도발…한·미·일 긴장속 안보협력 강화 2‘2022 제네시스 챔피언십’ 성황리에 마쳐 3美서도 커지는 IRA 비판론…전기차 보조금 문제 해결될까 4영등포아트홀, 서사극 대표작 ‘사천의 선인’ 이달 28일 선봬 5NYT "삼성전자 입주 키이우 건물 피해…러 미사일 피격" 6마이클 멀린 전 미 합참의장 "한반도 핵전쟁 위험 최고조" 경고 7신한금융, ‘2022 신한 소셜 임팩트 챕터’ 컨퍼런스 8[기획]대기업 신규 출자로 위기극복 나서 9K-방산, 대규모 인력 채용…수주 릴레이 기세 잇는다 10레미콘‧시멘트 강대강 대치…정부 중재 시도 무산 애드버토리얼 [AD]현대자동차, 현대 모터스튜디오서 ‘지속가능 라이프스타일 프로그램’ 선보여 [AD]현대자동차, 현대 모터스튜디오서 ‘지속가능 라이프스타일 프로그램’ 선보여 PR 기자 미래에셋생명, 실속형 ‘온라인 항문&amp;폴립 수술보험’ 출시 미래에셋생명, 실속형 ‘온라인 항문&amp;폴립 수술보험’ 출시 홍석경 기자 [AD] 금호석유화학그룹,금호리조트에 럭셔리 캠핑을 더하다 ‘아산 스파포레’ [AD] 금호석유화학그룹,금호리조트에 럭셔리 캠핑을 더하다 ‘아산 스파포레’ PR 기자 [AD] 메리츠증권, 韓·美 국채 10년물 ETN 8종 상장 [AD] 메리츠증권, 韓·美 국채 10년물 ETN 8종 상장 이채원 기자 데스크칼럼 [데스크칼럼] 집값 하락 확산, 270만가구 주택공급 문제없나 [데스크칼럼] 집값 하락 확산, 270만가구 주택공급 문제없나 윤재오 기자 [데스크칼럼]'불러도 대답없는 너'…짝사랑 그만하자 [데스크칼럼]'불러도 대답없는 너'…짝사랑 그만하자 권대경 기자 [데스크칼럼] 6개월 연속 무역적자 극복 방안은 무엇? [데스크칼럼] 6개월 연속 무역적자 극복 방안은 무엇? 송영택 기자 기자수첩 [기자수첩] 금융위, ‘P2P 연계투자’ 해답 제시해야 [기자수첩] 금융위, ‘P2P 연계투자’ 해답 제시해야 홍석경 기자 [기자수첩] ‘블루아카이브’ 등급상향에 침묵하면 안 될 이유 [기자수첩] ‘블루아카이브’ 등급상향에 침묵하면 안 될 이유 박효길 기자 [기자수첩] 식품업계 쥐어짜면 물가 잡힐까? [기자수첩] 식품업계 쥐어짜면 물가 잡힐까? 강소슬 기자 [기자수첩] 증시 변동성 대응, ‘벼락치기’는 이번이 마지막이길 [기자수첩] 증시 변동성 대응, ‘벼락치기’는 이번이 마지막이길 이채원 기자 신문사소개 기사제보 광고문의 불편신고 고충처리인 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 영등포구 여의대방로65길 20 호성빌딩 신관 제호 : 매일일보 발행·편집인 : 나정영 청소년보호책임자 : 심주현 발행일 : 2022-10-11 (화) 대표전화 : 02)784-7114 팩스 : 02)3775-2119 발행처 : (주)매일일보 일간신문등록번호 : 서울 가 09920 인터넷신문등록번호 : 서울 아00231 등록일 : 2006-08-07 모든 기사의 소유권은 본사가 보유하고 있으며 발행인의 허가 없이는 기사나 사진의 무단 전재, 복사를 금합니다. [콘텐츠 문의] Copyright © 2022 매일일보. All rights reserved. mail to webmaster@m-i.kr 위로</t>
+  </si>
+  <si>
+    <t>서산시, 제주도서 관광활성화 워크숍 개최 &lt; 서산 &lt; 충남 &lt; 기사본문 - 충청일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 UPDATED : 2022-10-11 12:13 (화) 제보 로그인버튼 로그인 회원가입 실시간뉴스 맛 가격 최고 …청원생명축제 60만명 찾았다 최근 5년간 부정승차 123만건, 부가운임만 208억원 대통령 집무실 동측에 새 진입로 건설 중…"도어스테핑 피하기?" 정우택 "작년 서울 극단선택, 20대 9.3% 증가…30·40대보다 많아" 10일, 단양 소백산에 ‘첫눈’ [동정] 김창규 제천시장 제천소방서, 의용소방대기술경연대회 ‘성료’ 이장우 시장, 베트남 빈증성 보반민 성장 접견 세종대왕과 초정약수 축제 성료 공주 석장리박물관, 기획전 '한글과 구석기' 전체메뉴 버튼 뉴스 정치 경제 사회 교육 문화 포토뉴스 연예 스포츠 핫이슈 비주얼뉴스 사람과일 우리지역소식 ONLY 충청 지역 충북 충남 대전·세종 오피니언·기획 오피니언 지난오피니언 자랑스러운 忠淸人 충북 독립운동가 열전 파워인터뷰 방과후 학교 우수사례 미주알고주알 CC온라인뉴스룸 명인열전 다시 보는 충청일보, 50년 전 오늘 김명기 편집인의 오늘 이 사람 지난기획연재 충청일보TV 동영상뉴스 미니다큐 문화행사 낮은의자 충청 문화산책 뉴스있슈! 사설 돋보기 우리말툰 노메이크업 웹드라마 [도플갱어] 모션뉴스 이슈톡톡 안녕, 오늘! 부동산리포트 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 서산시, 제주도서 관광활성화 워크숍 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 충남 서산 서산시, 제주도서 관광활성화 워크숍 개최 기자명 김정기 기자 입력 2016.09.12 09:21 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [서산=김정기기자] 충남 서산시가 관광활성화의 과제 발굴을 위해 제주도를 방문했다.시에 따르면 지난 9~10일 관련 부서 실·국장 및 직원과 우종재 서산시의장을 비롯한 시의원들이 제주도를 방문, 다양한 관광문화와 자원을 살폈다.내년 4월 서산 대산항과 중국 롱청시 룡앤항간 국제여객선 취항을 앞두고 중국관광객이 대거 유입될 것으로 전망됨에 따라 이에 대한 대책 마련이 시급한 실정이다.이에 중국관광객의 선호도 1위로 꼽힌 제주도의 벤치마킹으로 관광 인프라 구축을 위한 아이디어를 확보하기 위해 이번 방문이 추진됐다.우선 시 방문단은 현지에서 워크숍을 개최하고 제주도 관광개발 사례를 통한 서산시 관광정책의 발전방향을 모색하기 위한 자유로운 의견을 나눴다.이어 제주도가 자랑하는 대표적인 관광명소인 △제주항공우주박물관 △탐나라공화국 △에코랜드테마파크 등을 방문하며 창조관광 우수사례 등을 견학했다.시는 이번 워크숍에서 도출된 의견과 제주도 자연경관에 상상과 역발상으로 관광자원을 조성한 제주도의 우수사례를 바탕으로 새로운 관광콘텐츠 발굴에 총력을 기울일 계획이다.아울러 지역 국회의원과 협조체계를 구축해 국회차원의 관심과 지원을 적극 요청할 예정이다.시 관계자는 "이번 제주도 벤치마킹은 서산 관광 인프라 구축의 방향을 설정하는 의미 있는 방문이 됐다"며 "이번 결과를 바탕으로 내년 서산 대산항과 중국 롱청시 룡얜항간 국제여객선 취항에 발 맞춰 창의적인 관광 정책 수립에 힘을 쏟을 계획"이라고 말했다. 김정기 기자 gie0624@naver.com 다른기사 보기 저작권자 © 충청일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 [10월 1일은 국군의날] 3대 9명이 494개월 복무... 병역명문가의 나라 사랑 청원생명축제 개막…청주 오창서 내달 10일까지 [초점] KTX 세종역 신설 '세 번째' 도전 청주 조정대상지역 해제 불구…쌓여가는 아파트 매물 [속보]개량백신 예약 저조, 접종대상 확대 검토 충북자치연수원 제천이전, ‘왜 늦어지나’ [단독]국립공원 탐방로 예약제 정부간 '엇박자' [10월 1일은 국군의날] 3대 9명이 494개월 복무... 병역명문가의 나라 사랑 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 103회 전국체전서 충북선수단 선전 국립대병원 출산비용 편차 크다... 충북대병원 전국 두 번째 '언론 화합 한마당' 2022 충북기자협회 한마음체육대회 성료 세계 한인회장단 초청 충북 발전 간담회 개최 [속보]개량백신 접종 예약 '비상' 독감 환자 1주일새 45% 급증 실시간 뉴스 맛 가격 최고 …청원생명축제 60만명 찾았다 최근 5년간 부정승차 123만건, 부가운임만 208억원 대통령 집무실 동측에 새 진입로 건설 중…"도어스테핑 피하기?" 정우택 "작년 서울 극단선택, 20대 9.3% 증가…30·40대보다 많아" 10일, 단양 소백산에 ‘첫눈’ [동정] 김창규 제천시장 제천소방서, 의용소방대기술경연대회 ‘성료’ 이장우 시장, 베트남 빈증성 보반민 성장 접견 세종대왕과 초정약수 축제 성료 공주 석장리박물관, 기획전 '한글과 구석기' 인기뉴스 1 이제는 부동산 취득세 중과를 풀어야 할 시기 2 계룡세계군문화엑스포 7일 개막 3 [속보]개량백신 예약 저조, 접종대상 확대 검토 4 은행동·대흥동 일원 '대전 0시 뮤직페스티벌' 개최 5 충북자치연수원 제천이전, ‘왜 늦어지나’ 6 [단독]국립공원 탐방로 예약제 정부간 '엇박자' 7 예산군, '6회 예산장터 삼국축제' 14~20일까지 개최 8 코로나 주춤, 가장 센 독감 온다 포토뉴스 10일, 단양 소백산에 ‘첫눈’ 이장우 시장, 베트남 빈증성 보반민 성장 접견 [장문석의 발길 디카詩] 부들어린이집 이상래 의장, 동구 노인의 날 기념행사 참석 하단영역 하단메뉴 매체소개 기사제보 광고문의 구독문의 이용약관 고충처리인 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 충청북도 청주시 흥덕구 직지대로 769 충청일보빌딩 (우편번호 28470) 대표전화 : 043)279-2000 팩스 : 043)279-2020 청소년보호책임자 : 천정훈 법인명 : 충청일보 제호 : 충청일보 등록번호 : 충북 가 00001 충청일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 충청일보. All rights reserved. mail to news1948@naver.com 위로 전체메뉴 전체기사 정치 전체 정치일반 청와대·외교 행정·지자체 국회·정당 선거현장 6.1지방선거 경제 전체 경제일반 산업·기업 건설·부동산 생활경제·유통 금융·증권 취업·창업 분양광고 사회 전체 사회일반 사건·사고 여성·복지 환경 국제 현장속으로 초록우산이야기 교육 전체 충청돋보기 문화 전체 문화일반 건강·의료 여행·레져 뷰티·패션 공연·전시 문학·출판 미스코리아 미스인터콘티넨탈 문화산업 충북 전체 보은 옥천 영동 괴산 진천 음성 충주 제천 단양 증평 종합 충남 전체 천안 공주 보령 아산 서산 논산 금산 부여 서천 청양 홍성 예산 태안 당진 계룡 내포 대전·세종 전체 대전 세종 포토뉴스 전체 충청포토 전국포토 포토스토리 장문석의 발길:디카詩 스포츠 전체 스포츠 일반 육상‧ 마라톤 축구 야구 농구 연예 전체 방송·연예 가요·음악 영화 핫트렌드 핫이슈 社告 사람과일 전체 동정 운세 우리지역소식 전체 인사·동정 모임·행사 결혼·축하 개업·홍보 부음·애사 오신 손님 알림·기타 기획연재 전체 파워인터뷰 방과후 학교 우수사례 미주알고주알 재경 출향인사를 만나다 건곤 화백(乾坤 畵伯) 영화 피터安의 골프이야기 오마이펫(PET) 자랑스러운 忠淸人 충북 독립운동가 열전 다시 보는 충청일보, 50년 전 오늘 명인열전 충청일보 2021 어젠다 '위기를 넘어 희망찬 내일로' 농촌을 살리자 '꿈나래 학교'를 가다 우리 語源 이야기 김명기 편집인의 오늘 이 사람 창간 76주년 특집 6.1지방선거 후보자 인터뷰 지난기획연재 전체 정종진교수의 속담여행 김경민의 미술이야기 동학농민혁명현장을 찾아 밥상레시피 직지포럼 경제특별도 건설 잘되고 있나? 우리동네스타 충북도, 대규모 스포츠대회유치 가능한가! 명인열전 대덕연구개발특구, 이대로는 안된다 내멋에산다 세계조정선수권 충주유치 가능한가 어린이 보호구역 안전한가 충주 세계무술축제 성공조건은? 르포 - 잊혀져가는 풍경 충청일보 연중캠페인 17대 대선공약 대전 서남부권 개발 이대론 안된다 우리동네 금고 주간낙수·도토리 한만수의 대하 장편소설 금강 대를잇는 맛자랑 선거법바로알기 Weekend 신충청기행 충북의 성씨를 찾아서 사학의 뿌리를 찾아 중국어 기본은 한다 전원학교 우수사례 고사성어 기행 충청맛집기행 발따라길따라 충청인의 젖줄 대청호500리길 한국고유의 사이언스 충청일보지상갤러리 파워인터뷰 경제특별도충북건설 행정중심복합도시 긴급제언 행정중심복합도시건설 무엇이 문제인가 우리학교최고! 18대총선후보자토론회 2008총선현장리포트 장호봉의 약초기행 꿈을 이루는 농업의 역군들 충청교육100년 희망을위해 뛰는사람들 대형마트 지역경제 상생방안은? 충청권홀대론 극복 송태호의 실크로드여행기 브랜드파워 도심 속 문화공간 김태인의 주간증시전망 이문학의 관상으로 보는 세상 불혹 앞둔 청주산단 경쟁력 강화방안은 의학칼럼 충북미술지도를 바꾸다 인물탐구 민선 4기 반환점…단체장에 듣는다 만평요지경 총선 첫 도전인물들 창간 75주년 특집 20대총선 선택! 21대 총선 지난오피니언 전체 직지포럼 시론 목민의창 성직마당 경제인칼럼 신길수칼럼 변광섭칼럽 김미혜칼럼 정현웅칼럼 의학상식 법률상식 세무상식 물이야기 한방산책 노무상식 무심천 삶의향기 문화칼럼 우리고장의역사한담 객석에서 어경선칼럼 오영미칼럼 평화의샘 전태익칼럼 권영정칼럼 운천동단상 충청포럼 김영대칼럼 김춘길 칼럼 아침의 단상 김정렬칼럼 발언대 이정칼럼 조무주칼럼 기자의눈 홍익칼럼 역술이야기 이광형의시각 이진영칼럼 세월에 새긴 그림 신찬인칼럼 똑똑한 임신 행복한 출산 김종원의 생각너머 신수용의 쓴소리 칼럼 오피니언 전체 사설 기고 데스크시각 교육의눈 충청논단 충청칼럼 충청광장 충청의창 세상을보며 월요일아침에 수요단상 목요사색 충청시론 충청시평 살며생각하며 생활안전이야기 내일을열며 우리말알기 오병익칼럼 김진웅칼럼 백목련 의학칼럼 김재영칼럼 김효겸의 세상바라보기 충청산책 건강칼럼 충청돋보기 박별 칼럼 김명기의 톺아보기 중장년 일자리 이야기 이규철의 100세 대학 장중식의 뉴스&amp;스토리 CC라이프뉴스 전체 트래블메이커 대학생의 눈 인생은 아름다워 사업·행사 충청일보TV 전체 동영상뉴스 미니다큐 낮은의자 문화행사 핫이슈영상 메디컬충청 충청 문화산책 뉴스있슈! 사설 돋보기 우리말툰 노메이크업 웹드라마 [도플갱어] 모션뉴스 이슈톡톡 안녕, 오늘! 지면보기 국제뉴스 CC온라인뉴스룸 전체 "쏙쏙" 식의약 생활정보 경제야 놀자! 1분 우리말 퀴즈 카드뉴스 똑똑한 수요일 오마이펫 미디어데스크 위클리 연예 통(通) 오늘의 충청일보 헤드라인충청 반찬뉴스 PICK 북 비주얼뉴스 동영상 전체 동영상뉴스 충청 문화산책 뉴스있슈! 이슈톡톡! 안녕, 오늘! 웹드라마[도플갱어] 우리말툰 노메이크업 문화 행사 사설 돋보기 모션뉴스 메디컬충청 미니다큐 낮은의자 충청일보어린이합창단 전체 영상갤러리 미스코리아영상 전체 세종&amp;충북 대전&amp;충남 영상사업부 전체 항공 촬영 의료 영상 토목·건축 영상 인터넷 방송 제작 CF·홍보 영상 중계영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>中관광객 때문에 제주도 용두암 몸살…무슨 일이 - 매일경제 뉴스 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 구독신청 통합검색 검색 닫기 뉴스 인기뉴스 오피니언 기획·연재 스페셜에디션 스타투데이 스포츠 게임진 영문뉴스 MK China MK Japan MK빌리어드뉴스 미라클어헤드 MK ESG 프리미엄 매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 뉴스레터 들려주는 뉴스 재테크 증권 부동산 경제용어 신설법인 라이프 골프 Book 여행 날씨 우버人사이트 MK생애설계센터 LUXURY M M플레이 Car 비즈니스 The Biz Times 닛케이텔레콤 집꾸미기 큐레이션 건빵 한국데이터거래소 MK몰 캠페인 세계지식포럼 세계한상대회 정진기언론문화상 구독신청 매경오픈 MK멤버십 뉴스 오피니언 프리미엄 연예 스포츠 증권 부동산 경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition 인기뉴스 암호화폐 오늘의 매경 中관광객 때문에 제주도 용두암 몸살…무슨 일이 이명주 기자 입력 : 2016.09.08 15:30:33 제주 대표 관광지인 용두암이 중국인 관광객들로 몸살을 앓고 있다. 문화재인 용두암 주변 자연석을 무단으로 가져가 훼손하는가 하면 고둥 등 해산물까지 마구 채취하고 쓰레기를 투기하는 일이 있어 주민들이 불만을 토로하고 있다. 용두암에서 해산물을 파는 용담2동 어촌계의 한 해녀는 8일 “중국인 관광객들이 손에 들 수 있을 정도의 크기의 자연석을 줍고 가져가는 일이 다반사”라며 “용두암을 깨 파편을 가져가려는 관광객도 있어 이를 말리기도 했다”라고 말했다. 중국인 관광객들이 출국하면서 거치는 제주공항과 제주항 외항 보안 검색대에서는 이런 제주 자연석을 가방에 담아 가려는 중국인들이 적잖게 적발된다. 이경용 제주도의회 농수축경제위원회 의원은 지난 6일 제345회 임시회에서 “용을 숭상하는 중국인들이 용두암 자연석을 가져갔다가 제주공항이나 제주항 외항 보안 검색대서 적발되는 일이 매일같이 발생하고 있다”며 “한 상자 분량의 돌이 적발될 정도로 문제가 심각해 단속 강화가 필요하다”고 말했다. 한 중국인 관광객 안내사는 “‘자연석을 가져가서는 안 된다’고 주의를 주는데도 일부 관광객들이 말을 듣지 않고 있다”며 “어쩔 수 없는 상황”이라고 말했다. [디지털뉴스국 이명주 인턴기자][ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지] #제주 용두암#중국인 관광객 오늘의 핫뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나"   1시간 35분"과천 송파를 2년전 분양가로"…'줍줍의날' 미리 메모   19시간 3분경기침체를 알리는 지표가 시장의 호재가 되는 역설 [핫이슈]   2시간 32분감사원 국감두고 여야 기싸움…10분만에 '정회'   1시간 25분 당신이 좋아할 만한 기사 댓글 시선집중 [매경증권센터] 이시각 증시는? [이시각 증시는] 거래소, 코스닥 시황 종합 [이 시각 특징주] 투자자별 매매동향, 이슈 테마.. [증권사 리포트] 최신 증권사 리포트 요약 주요뉴스 금통위 앞두고 환율 급등…"얼마나 더 오르나" "나도 내 집 없는데"…외국인 국내 아파트 3만.. "과천 송파를 2년전 분양가로"…'줍줍의날' 미.. 경기침체를 알리는 지표가 시장의 호재가 되는.. 감사원 국감두고 여야 기싸움…10분만에 '정회.. 인기뉴스 종합 연예 스포츠 1"과천 송파를 2년전 분양가로"…`줍줍의 날` 미리 메모.. 2"하룻밤 비용 13만원"…데이트 하려고 돈까지 빌리는 美.. 3[단독] 롯데케미칼, 일진머티리얼즈 2.7조 인수 본계약.. 4금통위 앞두고 환율 또 급등…"환율 얼마나 더 오르나요.. 5"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가짜 음.. 1선우은숙, 유영재 아나운서와 재혼…혼인신고 마쳤다[공.. 2김희정, 골프웨어 입어도 숨길 수 없는 글래머 몸매 [똑.. 3치어리더 김현지, 속옷 화보 찍은 듯…핫걸 [똑똑SNS] 4공효진♥케빈오, 오늘(11일) 美 뉴욕서 결혼식[공식] 5김수미 “김용건 늦둥이, 아빠 얼굴 똑 닮아”(회장님네.. 1꼴찌 한화는 12명 정리, 9위 두산은 역대급 칼바람 예고 2치어리더 이다혜 `가터벨트 하고 섹시공연` [MK화보] 3조선의 4번 타자 이대호, 거인의 전설로 영원히 남다 [.. 4유희관 `치어리더와 함께 댓댓 댄스` [MK화보] 5박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 포토 1/2 전체 메뉴 뉴스경제 기업 사회 국제 부동산 증권 정치 IT·과학 문화 기획·연재 Special Edition Pulse MK China MK Japan 오피니언사설 기명칼럼 사외칼럼 매경포럼 매경데스크 주말칼럼 특별칼럼 전문기자칼럼 기자24시 스포츠야구 축구 당구 일반 연예주요뉴스 스타인터뷰 TV · 방송 가요 · 음악 영화 라이프날씨 골프 여행 Book 우버人사이트 MK생애설계센터 LUXURY M Car 프리미엄매경e신문 매경프리미엄 레이더M 레이더P 오늘의 매경 들려주는 뉴스 캠페인세계지식포럼 국민보고대회 세계한상대회 정진기언론문화상 매경오픈 재테크증권 부동산 경제용어 매거진매경ECONOMY 매경LUXMEN 시티라이프 골프포위민 비즈니스닛케이텔레콤 신설법인 한국데이터거래소 교육오프라인교육 어린이경제교실 매경TEST 서비스구독신청 MK모바일 신문PDF 트위터 페이스북 RSS 뉴스레터 MK멤버십 매일경제 회사소개 회사연혁 광고안내 구독신청 인재채용 매경닷컴 회사소개 광고안내 개인정보처리방침 회원약관 독자의견 서비스문의 청소년보호정책 (책임자 : 이선형, 고성준) 서울특별시 중구 퇴계로 190 ☎ 02) 2000-2114 인터넷신문등록번호 : 서울 아01043 등록일자 : 2009.11.30 발행일 : 2009.11.30 발행인/편집인 : 김정욱 사이트맵 Copyright (c) 매경닷컴. All rights reserved. RSS 매경 Family site 매일경제 매경닷컴 MBN 매경ECONOMY 매경LUXMEN 시티라이프 M-Print KDX한국데이터거래소 中관광객 때문에 제주도 용두암 몸살…무슨 일이 - 매일경제 받는 메일 제목 전할 메시지 200자	이내로 적어주세요 보내는 메일 보내는 사람 메일보내기 취   소</t>
+  </si>
+  <si>
+    <t>제주도맛집, 용두암 관광까지 원스톱 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:14 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도맛집, 용두암 관광까지 원스톱 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도맛집, 용두암 관광까지 원스톱 지화 승인 2016.09.12 18:36 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 여름철 휴가 시즌이 끝났지만 제주도를 찾는 관광객들의 발걸음은 끊이지 않고 있다. 국내를 대표하는 관광 명소인 만큼 계절과 관계 없이 꾸준한 관광 수요를 확보하고 있는 것이다. 덕분에 제주도에는 관광객들의 입맛을 사로잡는 제주도맛집도 즐비해 있다. 특히 섬이라는 특성 상 제주도횟집이 대거 자리하고 있기 마련. 그 중에서도 제주시 동한두기길 소재 '월척수산본점'은 제주도를 관광한다면 꼭 들려야 할 제주도맛집으로 꼽힌다. 관광 동선에 최적화된 입지 조건을 갖춘 것은 물론 싱싱한 활어회 및 해산물을 선보임으로서 제주도 관광객들에게 높은 인기를 얻고 있는 것이다. 업체는 광어, 우럭, 농어, 고등어 등의 활어회를 선보이고 있다. 또한 제주도에서만 맛볼 수 있다고 알려진 다금바리, 갓돔 등의 메뉴도 코스요리로 선보이고 있다. 특히 다금바리 등 고급 어종 주문 시에는 랍스타, 해물찜, 참돔구이 및 참돔조림 등의 서비스를 제공하여 고객 만족도를 높이고 있다. 뿐만 아니라 업체는 콘샐러드, 매운탕, 게장, 파전 등 수십여 종류의 밑반찬을 제공하여 고객 입맛을 사로잡고 있다. 훌륭한 경치를 바라보며 식사를 즐길 수 있다는 장점도 갖추고 있다. 창문 바깥으로 제주도 앞바다가 자리하고 있어 오션뷰 체험이 가능한 것이다. 일몰의 장관을 바라보며 식사를 즐기는 것은 업체에서만 누릴 수 있는 특권이라 할 수 있다. 업체 주변으로는 용두암 및 용연구름다리가 위치해 있다. 여기에 제주공항과의 거리가 불과 5분 밖에 되지 않아 편리한 관광 동선을 누릴 수 있다. 업체 관계자는 "제주도에서만 먹을 수 있다는 고급어종을 선보이는 것은 물론 나아가 랍스타, 해물찜 등의 메뉴까지 무료로 제공하여 고객 만족도가 높다."라며 "무엇보다도 제주도 유명 관광지가 주변에 자리하고 있어 식사 전후 산책을 즐기기에도 좋다."고 전했다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 천태산 은행나무에 바치는 자연 시편 『천년 동무 천년 등불』 ‘시와에세이’에서 발간 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>"”중국 관광객, 제주도 용두암 깨서 가져갔다”"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 사용안함(뉴스속보) ”중국 관광객, 제주도 용두암 깨서 가져갔다” 2016.09.07 07:26 [헤럴드경제] 제주도 대표 관광지이자 문화재인 ‘용두암’이 중국인 관광객에 의해 훼손됐다는 주장이 제기됐다.용두암은 제주시 용담동 해안에 있는 높이 10m 가량의 바위다. 오랜 세월에 걸쳐 파도와 바람에 깎인 모양이 용의 머리와 닮았다고해서 용두암이라는 이름이 붙여졌다.제주특별자치도의회 농수축경제위원회 이경용 의원은 6일 열린 제345회 임시회 제주도 해양수산국의 업무 보고에서 용두암 훼손 문제를 언급했다. [사진=두산백과 캡처]이 의원에 따르면 제주항과 제주국제공항 등 보안 검색대에선 중국인 관광객이 깬 용두암을 반출하려다 적발되는 경우가 허다하다. 특히 보안 검색 과정에서 매일 한 바구니씩 이런 돌덩이들이 적발되기도 했다.제주 지역 매체들에 따르면 용두암 인근 상인들은 이같은 경우를 수년째 봐 왔으며, 관광지를 훼손하는 중국인 관광객이 통제불능인 상황이다. 이를 단속하는 공무원은 없다. 용두암은 제주도기념물 57호로 지정돼있다. 용두암을 무단으로 훼손하면 문화재보호법에 따라 5년 이하의 징역이나 5000만원 이하의 벌금에 처해진다. onlinenews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도-JTA, 추석 특별관광안내소 운영 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도-JTA, 추석 특별관광안내소 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도-JTA, 추석 특별관광안내소 운영 기자명 조문호 기자 입력 2016.09.11 21:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 14~18일 공‧항만 [제주도민일보=조문호 기자] 제주도와 제주도관광협회(회장 김영진)는 오는 14일부터 18일까지 공·항만에서 추석맞이 특별 제주관광안내소를 운영한다고 11일 밝혔다.추석연휴 5일 간 운영되는 특별 제주관광안내소에서는 도 관광국에서 운영하는 추석연휴 관광대책종합상황실과 연계해 근무 직원을 추가적으로 투입한다.체류객 발생, 관광불편신고 등 각종 비상상황 발생을 사전 대비해 관광객 불편사항을 최소화 해나갈 계획이다.공항·만에서 한가위 제주방문 환영행사도 실시한다. 조문호 기자 jjdominilbo@gmail.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"지난해 제주도 관광객 카드실적 2.3兆…외국인 관광객 중엔 中 비중 85.9%" - 이투데이 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 금융·증권 금융 "지난해 제주도 관광객 카드실적 2.3兆…외국인 관광객 중엔 中 비중 85.9%" 입력 2016-09-27 11:33 서지희 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 (자료출처=신한카드 빅데이터센터 ) 지난해 제주도에서 내·외국인 관광객이 사용한 카드 사용금액이 2조 원을 웃돈 것으로 나타났다.신한카드 빅데이터센터와 한국은행 제주본부는 '제주 관광객 소비 특성'을 공동으로 분석한 결과 내·외국인 관광객의 카드 이용액은 2조3000억 원으로 전년(1조9000억 원)대비 21% 증가했다고 27일 밝혔다. 이는 전체 제주도민이 사용한 신용카드 사용금액 4조9000억 원의 46.5%에 해당하는 규모다. 특히 외국인 관광객 카드 사용금액이 증가 추세를 보였다. 작년말 외국인 관광객의 카드 사용 금액은 5000억 원으로 제주도내 사용금액에서 차지하는 비중이 2012년 4.2%에서 11%로 세 배 가까이 늘었다. 내국인 관광객의 카드 사용금액은 1조7000억 원으로 나타났다.외국인 관광객 중에서는 중국 관광객 비중이 가장 컸다. 작년 외국인 관광객의 카드 사용금액을 국적별로 보면 중국이 85.9%를 차지했다. 이는 2012년 60%를 차지했던 것보다 20%포인트 이상 확대된 것이다. 이어 태국(2.8%), 미국·대만(2.2%) 순으로 나타났다.중국 관광객은 쇼핑(57.4%)에 가장 많이 카드를 사용하는 것으로 나타났다. 다른 외국인 관광객에 비해 면세점과 화장품 이용비중이 높다는 분석이다.신한카드 빅데이터센터 측은 "도내 화장품 업종 카드매출(금액)의 63.1% 가량을 중국인을 포함한 외국인 관광객이 차지한다"고 설명했다.(자료출처=신한카드 빅데이터센터 ) 또한 조사 결과 제주도 관광객의 개별관광 증가로 신용카드 사용 건당 결제금액이 감소하는 소액화 현상이 나타났다. 제주방문 관광객 중 개별관광객 비중은 2010년 76.9%에서 작년 95.6%로 증가했다.관광객 평균 건당 결제금액을 보면 내국인 관광객은 2012년 6만1000원에서 올해 1분기 4만5000원으로 줄었다. 외국인 역시 같은 기간 22만1000원에서 14만6000원으로 크게 감소했다.신한카드 빅데이터센터 측은 "모든 부분(교통, 숙박, 체험, 음식, 쇼핑)에서 건당 결제금액이 줄어들고 있다"며 "특히 고가 숙소(특급호텔 등)에 비해 저가 숙소 이용이 크게 늘면서 숙박비를 중심으로 결제금액이 소액화되는 추세"라고 설명했다.중국 관광객 역시 내국인이나 다른 외국 외국인 관광객에 비해 특급호텔 이용비중이 높으나, 최근 개별 관광이 늘면서 특급호텔 비중(2012년 86.3%→2015년 57.5%)이 줄고 펜션 등 저가형숙소에 대한 선호도가 높아지는 추세다.한편, 제주 올레길이 제주관광의 아이콘으로 떠오르면서 읍면단위 로컬 지역의 내수경기에도 긍정적 영향을 미친 것으로 나타났다.2013년 대비 지난해 제주 주요 지역 카드이용금액 연평균 증가율을 분석해본 결과 구좌읍(35.5%), 성산읍(32.8%), 서귀동(28.8%), 안덕면(25.7%), 애월읍(24.7%) 순으로 나타났다.신한카드 빅데이터센터 관계자는 "제주 방문 관광객수는 2013년 1000만 명을 돌파했으며 올해는 최단기인 8월에 1000만 명을 돌파했다"며 "최근 제주 관광은 관광형태가 단체관광에서 개별관광 중심으로 단순관광에서 문화체험으로 급속히 변화하고 있다"고 설명했다. #신한카드빅데이터센터 #한국은행 #한국은행제주본부 #중국인관광객 #제주도 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 일본, 오늘부터 한국인 무비자 관광 허용…2년 7개월만 일본 정부는 11일부터 한국 등 68개 국가·지역을 대상으로 무비자(사증 면제) 일본 입국을 다시 허용한다. 이에 따라 한국인도 비자 없이 관광, 친족 방문, 견학, 시찰, 단기 상용(商用) 등의 목적으로 최대 90일간 일본에 머물 수 있게 됐다. 한국인에 대한 무비자 입국을 재개하는 것은 약 2년 7개월 만이다. 일본 정부는 2020년 3월 9일부터 오늘부터 개량백신 접종 개시…60세 미만은 잔여백신 신청 가능 11일부터 오미크론 변이에 대응하는 코로나19 개량백신 접종이 시작된다. 개량백신은 기존 백신보다 1.6배 이상 효과를 내는 것으로 알려졌다. 코로나19 예방접종추진단에 따르면 이날부터 모더나가 개발한 오미크론 BA.1 변이 기반 2가 백신을 활용한 동절기 코로나19 추가접종이 개시된다. 이번 접종에 활용되는 개량백신은 코로나19 바이러스 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 바이오 기업공개(IPO) 시장에 칼바람이 매섭다. 올해 상장한 기업들의 주가가 맥을 못 추는 것은 물론 수요예측 참패까지 이어지면서 IPO를 앞둔 기업들이 난색을 보이고 있다. 10일 본지 취재에 따르면 올해 국내 증시에 상장한 바이오기업 8곳 가운데 7곳은 공모가 대비 수익률이 마이너스(-)를 기록하고 있다. 특히 상반기 상장 기업들의 수 올 들어 가장 추운 출근길…내일도 5도로 ‘쌀쌀’ 11일 아침 최저기온이 3도에 이르는 등 출근길 추운 날씨가 예상된다. 북서쪽에서 내려온 차가운 공기로 인해 이날 대부분의 지역 아침 기온이 5도 내외까지 떨어졌다.올 가을 들어 가장 추운 날씨다. 지역별 아침 최저기온은 △서울 7도 △인천 7도 △대전 8도 △광주 12도 △대구 11도 △울산 11도 △ 부산 11도 등이다. 낮 기온은 16~21도까지 오르 러, '러시아워' 노려 우크라 도시 공습…사상자 속출 러, 12개 주요 도시 미사일 공습 단행 사망자 최소 14명...계속 늘어나고 있어 러시아가 우크라이나 수도 키이우를 비롯해 주요 12개 도시에 대대적인 미사일 공습을 감행해 사망자가 최소 14명 발생했다. 10일(현지시간) 뉴욕타임스(NYT) 등에 따르면 러시아는 이날 오전 수도 키이우를 포함해 리비우, 하르키우 등 최소 12개 도시에서 84발에 노벨 경제학상에 ‘은행ㆍ금융위기 연구’ 버냉키ㆍ다이아몬드ㆍ딥비그 스웨덴 왕립과학원 노벨위원회는 10일(현지시간) 올해의 노벨 경제학상 수상자로 벤 버냉키와 더글러스 다이아몬드, 필립 딥비그를 선정했다고 발표했다. 노벨위원회는 “세 사람은 ‘은행과 금융위기에 대한 연구’에 대한 공로로 수상하게 됐다”고 밝혔다. 이어 “이들은 특히 금융위기 동안 경제에서 은행의 역할에 대한 우리의 이해도를 크게 향 많이 본 뉴스 01 전장연, 지하철 4호선 출근길 시위…“지연 우려” 02 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 07 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 08 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 09 GS25, ‘박재범 원소주’ 이어 ‘버터맥주’도 완판 행진 10 ‘LG 마무리 투수’ 고우석, 이종범 사위 된다…절친 이정후 매제 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 금융·증권 최신 뉴스 [공시] 롯데케미칼 美 배터리 소재 자회사, 일진머티리얼즈 최대주주 지분 전부 인수 [공시] LS, KT서브마린 주식 약 404만주 취득…지분율 15.57% [조회공시] 한창, 2차전지 장비업체 인수 추진 보도 관련 [시황_정오] 코스닥 670.09p, 하락세 (▼28.4p, -4.07%) 지속 [시황_정오] 코스피 2180.53p, 하락세 (▼52.31p, -2.34%) 지속 [국감 핫이슈] 이복현 금감원장 “금투사 접대비, 현황 점검할 것” [공시] 현대삼호중공업, 3468억 규모 LNGC 1척 수주 "신규 서비스 이용하면 경품 드려요"…우리은행, 'WON에서 놀자!' 이벤트 실시 [국감 핫이슈] 구멍 뚫린 비대면 금융…이복현 "은행 보안 시스템 개선, 필요성 공감" [국감 핫이슈] 금감원, 외부 금융기관 수견직원 59명…"민원창구 변질 우려" 뉴스발전소 [인포그래픽] 비 오는 한글날, 태극기 다는 법 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '비에니끄' 의류 선보이는 모델들 마켓 뉴스 특징주 투자전략 삼성바이오로직스, 3분기 역대 최대 실적 전망에도 약세 현대차·기아, 'UBS' 자동차 등급 하향에 4% 넘게 '동반 급락' SK하이닉스, 美 대중 반도체 수출규제에 약세 크래프톤, 증권가 목표가 하향에 6%↓ 카카오게임즈, 펄어비스 52주 신저가 기록 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 12:00 20분지연 코스피 코스닥 1.다이나믹디자인 3,100 2.화천기계 1,330 3.베트남개발1 72 4.유니온머티리얼 335 5.STX 385 1.테라셈 33 2.코아스템 2,680 3.동국알앤에스 775 4.코디엠 123 5.SCI평가정보 760 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,369,000 -1.45% 이더리움 1,838,000 -2.8% 비트코인 캐시 159,100 -4.96% 리플 710.7 -6.18% 위믹스 2,404 -5.06% 에이다 568.1 -6.19% 이오스 1,487 -7.41% 트론 88.7 -0.63% 스텔라루멘 176.5 -3.23% 비트코인에스브이 67,900 -3.55% 체인링크 10,380 -5.12% 샌드박스 1,130 -5.6% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>中 관광객 요우커, 제주도서 집단 폭행?… ‘술’ 때문에 - 이뉴스투데이 × 전체기사 금융 전체 정책·일반 금융공기업 은행 증권 보험 여신 산업 전체 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 전체 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 전체 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 전체 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 전체 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 전체 교육 문화 연예 스포츠 오피니언 전체 e사람 기자수첩 칼럼 기고 피플 전체 인사 부고 동정 전국 전체 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 전체 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 최종편집 : 2022-10-11 12:03 (화) 검색어를 입력해주세요. 검색 독서신문·Readersnews 이뉴스TV 에이원뉴스 전체 금융 정책·일반 금융공기업 은행 증권 보험 여신 산업 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 교육 문화 연예 스포츠 오피니언 e사람 기자수첩 칼럼 기고 피플 인사 부고 동정 전국 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 기획 뉴스 영상 이전 다음 中 관광객 요우커, 제주도서 집단 폭행?… ‘술’ 때문에 페이스북 트위터 카카오톡 URL복사 기사공유하기 상태바 HOME 정치사회 사회 中 관광객 요우커, 제주도서 집단 폭행?… ‘술’ 때문에 김채린 기자 승인 2016.09.13 16:07 댓글 0 페이스북 트위터 카카오톡 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [이뉴스투데이 김채린 기자] 제주도의 한 식당에서 여주인 모자와 손님 등을 집단 폭행한 혐의로 중국인 관광객이 경찰에 붙잡혔다.12일 제주서부경찰서는 "제주시 연동의 한 식당에서 업주 등 4명을 폭행해 상해를 입힌 혐의로 중국인 관광객 A와 B를 포함한 8명을 검거했다"고 전했다.지난 6일 중국인 관광객 A와 일행은 제주도로 관광을 와 9일 오후 10시쯤 제주시의 한 식당에서 음식을 주문했다.당시 A 일행은 외부에서 구매해 온 소주와 맥주 등의 주류를 식당에서 마시려 했고, 업주인 C와 그의 아들 D는 "외부에서 반입된 술은 마실 수 없다"고 만류했다. 이에 A를 포함한 중국 요우커 일행은 음식값을 계산하지 않은 채 나갔고, 주인 모자가 이들을 따라가 음식값 지불을 요구했다.이 과정에서 A 등은 식당 주인 C와 그의 아들 D를 포함해 싸움을 말리려 했던 단골 손님 등 4명에게 폭력을 휘둘렀다.폭행을 당한 식당 여주인 C씨는 머리에 충격을 받아 뇌출혈 증상을 보이고 있다. Tag #N 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 김채린 기자 zmf007@enewstoday.co.kr 다른기사 보기 페이스북 트위터 카카오톡 URL복사 기사공유하기 [[ARTICLEREPLY]] 주요기사 양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 의왕 청계동평생학습센터, 평생대학 수강생 모집 의왕 청계동평생학습센터, 평생대학 수강생 모집 광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 충남도, 외국인 대상 지역관광상품 개발 ‘박차’ 충남도, 외국인 대상 지역관광상품 개발 ‘박차’ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 비회원 글쓰기 계정인증을 통해 댓글을 남기실 수 있습니다. 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 인기뉴스 1김정은, 尹 ‘담대한 구상’ 일축…핵실험 강행 예고 2‘타다 금지법’ 뒤집은 국토부…“타다조차 외면” 3‘킹달러’ 직격탄…철강·해운업계 비상 4방탄소년단 부산 콘서트 특수에 숙박·유통업계도 ‘방긋’ 5[알쓸금융] 왜 1개월 만기 적금은 없을까? 6반도체 생태계 강화 나선 삼성·SK하이닉스…중소 지원해 자생력 키운다 최신뉴스 1양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 2부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 3의왕 청계동평생학습센터, 평생대학 수강생 모집 4광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 5카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 서초구 논현로31길 14 (서울미디어빌딩) 대표전화 : 02-523-8541 팩스 : 02-522-6725 청소년보호책임자 : 김봉연 법인명 : (주)서울미디어그룹 제호 : 이뉴스투데이 등록번호 : 서울 아 00339 등록일 : 2007-03-20 발행일 : 2005-05-23 발행인 : 방재홍 편집인 : 방두철 ⌜열린보도원칙⌟ 당 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 김봉연 070-4699-7210 tongno@enewstoday.co.kr 이뉴스투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이뉴스투데이. All rights reserved. mail to webmaster@enewstoday.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 개방형스마트 관광 서비스 플랫폼 구축 &lt; 행정 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 개방형스마트 관광 서비스 플랫폼 구축 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 행정 제주도 개방형스마트 관광 서비스 플랫폼 구축 기자명 윤주형 기자 입력 2016.09.09 12:38 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 9일 사업 착수보고회 열고 시작스마트관광 모바일앱 개발 기대제주도는 미래창조과학부의 2016년 ICT기반 공공서비스 촉진사업 과제로 선정된 개방형스마트 관광서비스 플랫폼 구축 사업 착수보고회를 9일 개최한다.도에 따르면 개방형 스마트관광서비스 플랫폼 구축 사업은 전액 국비(예산 9억원)로 추진되는 것으로, 사업자는 지난 8월 조달청을 통해 도내 IT기업인 ㈜CS컨소시엄(CS, 제주넷, 인포마인드)으로 선정했다.이번 사업으로 주요관광지에 설치된 공공 와이파이(WIFI)와 비콘 접속 정보를 통해 관광객의 이동경로와 소비패턴을 파악할 수 있을 것으로 보인다.또 실내·외 제한없이 고객 식별과 유도가 가능해져 최적화된 광고 콘텐츠 제공에 따른 소상공인 비즈니스 지원이 가능하고, 개발되는 플랫폼으로 관광콘텐츠를 체계적으로 통합관리 할 수 있을 것으로 전망된다.노희섭 제주도 정보융합담당관은 "스마트관광 디지털콘텐츠 및 API를 공유하고, 홈페이지를 통해 수집된 정보와 플랫폼을 제공, 국정운영 기조인 정부3.0 개념에 부합되도록 사업을 추진할 계획"이라고 말했다.한편 이날 착수보고회는 사업전담기관인 한국정보화진흥원, 사업감리업체, 제주관광공사, 제주창조경제혁신센터, 관련 업체 관계자 등이 참석해 사업방향에 대한 공유와 의견을 교환한다. 윤주형 기자 21jemin@naver.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"용 숭상하는 중국인 관광객, 제주도 용두암 깨서 가져가" | 위키트리 위키트리 사회 menu clear 경제 일반 산업 전자 자동차 IT·통신·게임 에너지·화학 조선·철강·중공업 항공·물류 건설·부동산 유통 금융·증권 제약·바이오 엔터 방송 셀럽 라이프 일반 리빙 푸드 패션뷰티 게임 동물 건강 스포츠 사회 일반 교육 정치 문화 일반 영화 음악 월드 토픽 한류 지역취재본부 전체 부산경남 경기북부 광주전남 경북동부 대구경북 전북 세종대전충청 베스트클릭 제보 경제 엔터 라이프 스포츠 사회 정치 문화 월드 지역취재본부 검색 "용 숭상하는 중국인 관광객, 제주도 용두암 깨서 가져가" 2016-09-06 15:50 add remove print link 이하 연합뉴스중국인 관광객들이 제주도 명물인 용두암을 깨서 가져간다는 주장이 나왔다.&amp;nb 이하 연합뉴스 중국인 관광객들이 제주도 명물인 용두암을 깨서 가져간다는 주장이 나왔다. 5일 제345회 임시회 제주도 도시건설국의 업무 보고에서 용두암 훼손 문제가 언급됐다. 제주특별자치도의회 농수축경제위원회 이경용 의원은 "용을 숭상하는 중국인들이 용두암 인근 돌을 무단으로 가져가거나, 단단한 돌로 용두암을 깨 그 파편을 가져가는 일이 수년째 계속된다는 말을 제주항이나 제주국제공항에서 보안 검색을 하는 직원에게 전해 들었다"고 말했다. 그의 말에 따르면 보안 검색 과정에서 매일 돌덩이가 한 바구니씩 적발되고 있다. 6일 한라일보에 따르면 이 의원은 최근 중국인 관광객이 용두암 돌을 들고 몰래 빠져나가려다 제주항 보안 검색대에서 적발됐다고 전했다. 관광객은 아픈 척 연기를 하며 소동을 피웠다. "중국인 관광객이 제주 용두암 훼손" 용두암은 제주시 용담동 해안에 있는 높이 약 10m 바위다. 오랫동안 바람과 파도에 씻기며 만들어진 모양이 용 머리와 닮았다고 해서 '용두암'이라고 부른다. 용두암은 제주도기념물 57호로 지정됐으며 하루 평균 방문객 1만여 명이 찾는다. 제주도 home 강혜민 기자 story@wikitree.co.kr 기사제보 copyright '위키트리'라는 출처를 표시하는 경우에 한하여, 누구라도 위키트리 컨텐츠를 제한 없이 이용할 수 있습니다. 위키트리는 뉴스 스토리텔링 가이드라인을 엄격히 준수합니다. 서브 콘텐츠 영역 WIKITREE TV 네이티브 광고 베스트 베스트 클릭 푸터 메뉴 keyboard_arrow_down WIKITREE HOME PAGE TAGSHOP 제보 파운데이션 COMPANY SOCIAL AD SERVICE WIKITREE NOW RECRUIT VERTICAL 펫 오늘은머니 새모네모 뉴스마켓 바바바 SITE 약관 및 운영원칙 개인정보취급방침 청소년보호정책 사이트맵 서울시 마포구 성암로 189 (상암동, K-biz DMC타워) 13층 (주)소셜뉴스 | 02-3789-8900 | 등록번호: 서울 아 01019 | 등록일자: 2009. 11. 10 최초 발행일: 2010. 02. 02 | 발행인 · 편집인 : 이원호 | 편집국장 : 서기찬 | 청소년 보호 책임자 : 손기영 크리에이티브커먼즈 저작자표시-동일조건변경허락 2.0에 따라 이용하실수 있습니다. © Social News Co., Ltd. All Right Reserved. 위키트리 페이스북 위키트리 트위터 위키트리 인스타그램 위키트리 유튜브 위키트리 인스타그램</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 日골프 미디어 초청 팸투어 실시 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 日골프 미디어 초청 팸투어 실시 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 日골프 미디어 초청 팸투어 실시 박성우 기자 headlinejeju@headlinejeju.co.kr 승인 2016.09.05 17:53 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주도관광협회(회장 김영진)는 지난 3일부터 5일까지 일본 골프 미디어 매체 GDO(Golf Digest Online) 및 일본 대형 여행사 상품 개발 관계자 등을 초청해 제주골프 상품 개발 팸투어를 실시했다.이번 팸투어는 지난 8월 일본 동경스포츠박람회(SPORTEC2016) 연계 세일즈 후속조치의 일환으로 기획됐으며, 골프를 활용한 제주관광 홍보와 골프장 주변 관광지, 먹거리, 액티비티 등을 일본 현지에 소개하기 위해 마련됐다.팸투어 이후 GDO 웹상의 홍보 페이지를 구축하고, 함께 방문한 현지 대형여행사 킨키니혼투어리스트와 공동 상품 개발이 이뤄질 예정이다.3일간 일본인 선호 제주골프 기획상품 개발을 위한 도내 골프장 코스 및 부대시설 등의 현장 취재와 도내 골프장 업계 및 여행업계와 함께하는 상품개발 공동 워크숍 등이 개최됐다.제주도관광협회 관계자는 "팸투어를 통해 280만명의 회원을 보유하고 있는 GDO 자사 빅데이터와 도내 골프장의 우수한 인프라.관광자원을 접목시켜 관광객 유치를 모색하겠다"고 밝혔다. &lt;헤드라인제주&gt;&lt;박성우 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도내 '마을관광' 콘텐츠 좋지만 활용은 미흡 &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도내 '마을관광' 콘텐츠 좋지만 활용은 미흡 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제주도내 '마을관광' 콘텐츠 좋지만 활용은 미흡 기자명 김봉철 기자 입력 2016.09.06 17:46 수정 2016.09.06 19:55 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 6일 제주웰컴센터 3층 회의실에서 열린 '2016 신규 농산어촌 관광상품 개발 대상마을 선정평가'를 위한 회의가 진행된 가운데 다양한 의견이 제시됐다. 김봉철 기자융복합 관광상품 개발 3년차에도 모객·상설화 부족업계-마을 시각차 해소, 홍보 등 행정지원 필요 지적양질의 농어촌 관광콘텐츠를 개발하는 사업이 추진되고 있지만 실제 여행상품 개발까지 과제가 적지 않은 것으로 나타났다. 제주도와 제주도관광협회는 지난 2014년부터 매년 1억원 가량을 투입해 '1·2·3차 산업 융복합 관광상품' 개발 사업을 추진하고 있다.올해의 경우 지난해 선정된 명도암참살이마을과 예래생태마을, 낙천리 아홉굿의자마을을 대상으로 팜팜버스를 운영하면서 홍보효과를 기대하고 있다. 이는 다음카카오를 통해 예약을 받고, 도관광협회가 매월 첫째 토요일에 버스를 운영해 관광객들의 마을 체험을 지원하는 시범적인 프로그램이다.하지만 6일 제주웰컴센터 3층 회의실에서 열린 '2016 신규 농산어촌 관광상품 개발 대상마을 선정평가'에 참석한 업계 관계자들은 "이번 사업이 올해 3년차를 맞고 있음에도 여행사 상품개발이라는 정착단계까지는 갈 길이 멀다"는 지적을 내놨다.특히 상품성을 갖추기 위한 규모화가 아직까지 미흡하다는 목소리가 높았다.지난 한 해 마을당 방문객 수가 110명 수준인 데다, 이마저도 타 지역 관광객 비중은 절반에 불과했다. 홍보 부족으로 15명 이상 모객이 여의치 않다보니 매달 1회 운영하는 수준에 그치기 때문이다. 마을과 여행사간 시각차도 여행상품 개발의 걸림돌이 되고 있다.여행사들은 수익 확보를 위해 요리·자연해설 등 체험 전문 인력과 상설 프로그램을 요구하고 있지만 마을 입장에서는 일정 규모 이상의 관광객이 담보되지 않은 상황에서 상근 인력 채용에 난색을 표하고 있다.이에 따라 현재보다 마을체험 횟수를 확대하고, 일정 수의 관광객들을 유치하기 위한 전국적인 홍보 확대 등 지원 노력이 더 필요하다는 지적이다.도내 업계 관계자는 "도내 마을들의 콘텐츠는 좋지만 방문객들이 시간과 인원 제약을 떠나 즐길 수 있도록 상설화하는 게 관건"이라며 "이를 위해 체험을 주중 운영으로 확대하기 위한 행정의 지원 노력과 함께, 마을들도 생업에 종사하지 않는 어르신들을 해설사로 활용하는 예래마을의 예를 참고할 필요가 있다"고 말했다.한편 도관광협회는 지난 7월부터 청수리·무릉2리·온평리·신흥2리 등 4개 마을을 대상으로 현지답사와 전문가 평가를 거쳐 오는 12월 1개 마을을 추가로 선정한다. 김봉철 기자 bckim@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 해양관광 특성화 지지부진 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 해양관광 특성화 지지부진 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 해양관광 특성화 지지부진 기자명 김경필 기자 입력 2016.09.01 17:03 수정 2016.09.01 20:57 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 2010년 마리나항 8곳·피셔리나항 6곳 개발 추진민간투자 유치 한계…2차 계획 개선책 마련 과제제주도가 해양관광 특성화 계획에 따라 마리나항과 피셔리나항 개발사업을 추진했으나 투자 유치에 한계를 보이면서 개선이 요구되고 있다. 도는 지난 2010년 해양관광 특성화 5개년 계획을 수립, 제주시 도두·김녕·이호항과 서귀포시 중문·성산신양·강정·화순·서귀포항 등 8개항을 마리나항으로 육성키로 했다. 또 제주시 협재·신창·용수·예초항과 서귀포시 하효·모슬포남항 등 6개항은 피셔리나항으로 개발한다는 계획을 세웠다. 이에 따라 마리나항을 중심으로 요트계류장과 리프트시설 등을 구축하고 피셔리나항은 어촌관광기반시설을 갖춘 공간으로 조성키로 했다. 해양관광 특성화에 소요되는 사업비는 국비 80억원과 지방비 20억원, 민자 1385억원 등 1485억원으로 추산됐다. 하지만 도가 최근 도의회에 제출한 주요업무보고 자료에 따르면 현재 운영중인 마리나항은 도두·김녕·중문항 등 3개항에 불과하다. 나머지 이호·성산신양항은 민간사업자 선정만 완료된 상태며, 강정·화순·서귀포항은 민간투자 유치중인 것으로 나타났다. 또 현재 운영중인 피셔리나항도 모슬포남항이 유일하며, 나머지 5개항은 민간투자 유치가 진행되는 것으로 파악됐다. 계획대비 실적이 부진한 사유로는 마리나항의 경우 개발에 따른 대규모 사업비 소요가 원인으로 지적됐고, 피셔리나항은 투자 대비 수익성 저조로 민간투자에 한계를 보이는 것으로 분석됐다. 이에 따라 도는 올해 제2차 요트·마리나 특성화 5개년 계획을 수립해 개선책을 마련하고 화순항을 국제수준의 마리나항으로 개발한다는 방침이어서 귀추가 주목된다. 김경필 기자 kkp2032@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 추석연휴 관광객 25만명...종합상황실 가동 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 추석연휴 관광객 25만명...종합상황실 가동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, 추석연휴 관광객 25만명...종합상황실 가동 기자명 이승록 기자					(leerevol@naver.com) 입력 2016.09.01 14:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도가 추석연휴기간 종합상황실을 가동한다.제주도는 연휴기간인 14일부터 18일까지 5일 동안 추석연휴 종합상황실을 운영한다고 1일 밝혔다.추석연휴 종합상황실은 고창덕 특별자치행정국장을 총괄, 부서자응ㄹ 반장으로 하는 총괄반을 비롯해 관광상황반, 비상진료반, 교통.항공.항마반, 소방.재난반, 생활환경반, 급수대책반 등 7개 반으로 편성돼 운영된다.하루 120여명에 이르는 공무원들이 비상근무를 하며 각종 사건사고 및 상황발새에 신속히 대처하고, 생활민원을 처리해 관광객과 귀성객, 도민 불편을 최소화할 계획이다.추석연휴 기간에 상환반이 설치돼 가동됨에 따라 총괄반(자치행정과)는 유관기관 협조체제를 유지하며 각종 사건사고를 총괄 관리한다.관광상황반은 연휴기간 중 25만명이 넘는 관광객이 제주를 찾을 것으로 예상됨에 따라 관광객 불편사항을 파악해 대처한다.비상진료반은 연휴기간 당직 의료기관과 당번약국 상황을 관리하면서 응급환자 긴급후송체제를 유지하고, 교통.항공.항만반은 항공편과 여객선 등 교통편 운영상황을 관리하면서 교통혼잡지역을 중심으로 한 교통사고 예방활동을 벌인다.소방.재난상황반은 24시간 재난상황 관리체제를 유지하면서 각종 사건사고 발생시 신속한 응급조치 및 구조활동을 벌이게 된다.원희룡 지사는 11일 서귀포매일올래시장, 12일 제주오일시장 등을 방문하고, 연휴 첫날 14일에는 귀성객과 관광객이 집중적으로 내도할 것으로 예상되는 공항 및 부두종합상황실을 찾아 점검하고 근무자들을 격려할 계획이다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 추석 앞두고 사회복지시설에 위문품 전달 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 추석 앞두고 사회복지시설에 위문품 전달 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도관광협회, 추석 앞두고 사회복지시설에 위문품 전달 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.09.08 12:16 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 사랑나눔봉사단(단장 강인철)은 지난 5일부터 다가오는 민족 고유의 명절 추석을 맞아 도내 사회복지단체인 예향원, 제주케어하우스, 애서원, 성심요양원, 제주요양원, 제주보육원, 다문화가정센터, 늘푸른요양원을 방문하여 쌀, 생필품, 휠체어 등을 전달하는 사랑나눔활동을 전개했다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>인근지역 다양한 관광인프라 조성, 제주도 오피스텔 `킹덤레지던스 협재` 분양 - 디지털타임스 디지털타임스 네이버 뉴스스텐드 구독 채널 구독 뉴스 정치 경제 산업 ICT과학 금융 부동산 국제 피플 방송연예 오피니언 대학소식 동영상 에게 고견을 듣는다 검색 통합검색 닫기 인근지역 다양한 관광인프라 조성, 제주도 오피스텔 `킹덤레지던스 협재` 분양 인터넷마케팅팀 입력: 2016-09-12 14:38 제주특별자치도 제주시 한림읍 옹포리 일대에 들어서는 '킹덤레지던스 협재'가 활발하게 분양 중이라는 소식이다. 최근 관광객은 물론 은퇴 후 귀촌, 자녀들의 교육을 위한 이사 등 제주도 이주민들이 증가하고 있는 가운데 이들의 수용하기 위한 레지던스나 오피스텔 등의 공급이 절실해지고 있는 실정이다. 때문에 해당 제주도 오피스텔 공급은 많은 이들의 수요를 충족시켜줄 것으로 기대를 모은다. 지하 1층~지상 8층까지 총 1개 동으로 구성돼있는 제주도 오피스텔 '킹덤레지던스 협재'는 TV, 에어컨, 냉장고 등이 갖춰진 풀옵션 빌트인으로 조성되며, 총 16개 타입으로 수요자들의 선택의 폭이 넓은 것이 특징이다. 뿐만 아니라 객실에 따라 한라산과 비양도를 조망할 수 있는 타입으로 나눠지며, 옥상라운지 바는 물론 글램핑장 및 호텔 급의 조식뷔페 운영 등으로 쾌적하고 편안한 생활이 가능해질 전망이다. 차량으로 30분 거리에 제주국제공항이 위치해있으며, 20분 거리에 제주 최대규모 복합레저 및 테마파크 시설로 들어서는 제주신화역사공원이 자리할 예정이다. 이외에도 새별오름, 하귀애월 해안도로, 곽지과물해변, 협재해변 등 제주도 내 유명 관광지와 인접해 있어 높은 관광인프라가 갖춰져 있다. 해당 제주도 오피스텔의 시행과 운영은 제주 표선킹덤타운하우스를 공급한 '제주킹덤씨티주식회사가 맡게 되며, 시공은 '휘문건설', 자금관리의 경우 '생보부동산신탁'이 맡는다. 현재 중도금 전액 무이자 혜택을 제공 중인 '킹덤레지던스 협재'는 시행사와 직접 임대차 계약을 진행해 직영 운영 되며, 년간 7.5%씩 5년 간 37.5%가 보장됨은 물론 최초 2년치 임대료 선지급과 더불어 3년 차부터는 1년치 임대료를 3년 간 선지급 받게 된다. 한편, 홍보관은 제주특별자치도 제주시 노형동 일원에 위치해 있으며, 서울 및 수도권 지역 고객의 편의를 도모하기 위해 서울 지하철 2호선 강남역 1번 출구 일대에 분양 사무실을 개설했다. cskim@dt.co.kr [저작권자 ⓒ디지털타임스 무단 전재-재배포 금지] 핫 이슈! 세금방석 위에서 외치는 표현의 자유?[한기호의 정치박박] [이규화의 지리각각] `더라인`, 끝판왕 도시인가 초호화 감옥인가 [객석] 네 줄의 현으로만 느끼는 바흐… 세 번째 계절 때맞게 무르익네 [THE GAME] 언디셈버부터 퀀텀나이츠까지… 라인게임즈 야심작, 판 흔든다 이 시간 핫클릭 당정, 여성계 의견 청취 등 여가부 폐지 속도… 민주당 강력 반발 조경태 "국회의원 면책특권 없애야" 국힘 "文 4대강 감사지시 불법, 靑민정실 회전문 인사야말로 감사원 독립 훼손" 가처분 완패 이준석… `신당 창당` 고행길 걷나 가장 많이 본 기사 문화일보 핫 뉴스1신혜성, 도난차량으로 음주운전 인정...“죄송하다” 2미 서부 명문 스탠퍼드대학서 대낮 성폭행 사건 잇따라 3“외국계 증권사, 네이버 매도의견 낸 후 대량 공매도...피해는 개미투자자에게” 4노벨경제학상에 ‘금융위기 연구’ 버냉키 등 美경제학자 3인 5밀대로 학생 엉덩이 때린 20대 교사 징역형 회사소개 고충처리 구독신청 사업제휴 콘텐츠제휴 광고안내 개인정보취급방침 청소년보호정책(책임자 : 손치배) 서울특별시 중구 새문안로22 ☎ 02) 3701-5500 등록번호 : 서울 아01699 등록일자 : 2011.07.15 발행일 : 2000.03.03 발행인/편집인 : 박학용 THE DIGITALTIMES Copyright ⓒ The DigitalTimes. All Rights Reserved. ☎ 02) 3701-5500 Please forward any comment to webmaster</t>
   </si>
   <si>
     <t>"스크린 사로잡은 ‘제주도펜션’…글로벌 관광객 몰린다"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 기타 스크린 사로잡은 ‘제주도펜션’…글로벌 관광객 몰린다 2016.09.02 09:57 국내 TV, 영화 등 한류 이끌며 관련 촬영지도 덩달아 인기천혜의 자연을 품은 제주는 국내는 물론 해외에서도 인기 높은 관광지다. 청정자연은 기본이고 레저, 산책, 등산, 퀄리티 높은 숙박 등을 누릴 수 있어 매해 수많은 여행객이 찾는다.오름, 바다 등을 한꺼번에 즐기기 좋은 서귀포펜션, 제주도가족펜션 등 제주도숙박시설은 제주여행을 즐기는 데 중요한 기본조건이 되고 있다. 제주도펜션업계의 경우 아름다운 자연, 쾌적한 시설, 힐링 산책로는 물론 세련된 디자인을 강조한 건축물이 많아지면서 양적, 질적 성장을 일궈오고 있는 상황이다.특히 치유 코스로 자리 잡은 제주도펜션 여행이 인기를 끌면서 각종 영화, TV 등 단골 촬영지로 소개되고 있다. 국내 TV, 영화 등이 한류를 이끌면서 관련 촬영지로 화면에 담긴 제주도숙박 펜션의 경우 투숙객이 몰려 1년 내내 성수기로 통할 정도다.제주도 남쪽 대평리에 위치한 이로제주펜션(IRO Jeju)의 경우도 이러한 이유로 한류 팬들의 인기 제주도숙박펜션으로 손꼽히고 있다.이로제주펜션은 최근 대만 유명배우 진백림, 인기배우 손예진, 신현준 등이 열연한 한중합작영화 ‘나쁜 놈은 죽는다’의 촬영지로 소개되면서 중국, 일본 등지에서 화제가 되면서 국내 관광객 뿐 아니라 중국 등 외국인관광객이 많이 찾는 제주도 숙소로 인기가 높다.관계자는 “이로제주펜션은 유명 영화 등에 아름다운 한 장면을 수놓는 배경이 되었을 정도로 품격 높은 디자인과 쾌적한 시설이 장점”이라며 "노출콘크리트 외벽을 살린 감각적인 디자인과 청정자연은 여느 제주펜션과는 다른 매력을 느낄 수 있을 것"이라고 전했다.또한 해당 펜션은 중문관광단지, 올레길 8~9코스 등과 인접할 뿐더러 ‘구가의서’ 촬영지 안덕계곡과 가까워 여행지로써 최적의 위치조건을 지니고 있다. 호텔 느낌의 쾌적한 객실과 바베큐시설, 개별 테라스 등을 구비하고 있어 여행의 피로를 풀기에도 좋다.최경침 기자 / edwin@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
   </si>
   <si>
-    <t>제주도관광협회, 사회복지단체 나눔활동 &lt; 일과 사람들 &lt; 도민광장 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 사회복지단체 나눔활동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 도민광장 일과 사람들 제주도관광협회, 사회복지단체 나눔활동 기자명 제주도민일보 입력 2016.09.08 11:38 수정 2016.09.08 11:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [제주도민일보] 제주도관광협회 사랑나눔봉사단(단장 강인철)은 지난 5일부터 다가오는 민족 고유의 명절 추석을 맞아 도내 사회복지단체인 예향원, 제주케어하우스, 애서원, 성심요양원, 제주요양원, 제주보육원, 다문화가정센터, 늘푸른요양원을 방문해 쌀, 생필품, 휠체어 등을 전달하는 사랑나눔활동을 전개했다. 제주도민일보 domin@jejudomin.co.kr 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>"지난해 제주도 관광객 카드실적 2.3兆…외국인 관광객 중엔 中 비중 85.9%" - 이투데이 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 금융·증권 금융 "지난해 제주도 관광객 카드실적 2.3兆…외국인 관광객 중엔 中 비중 85.9%" 입력 2016-09-27 11:33 서지희 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 (자료출처=신한카드 빅데이터센터 ) 지난해 제주도에서 내·외국인 관광객이 사용한 카드 사용금액이 2조 원을 웃돈 것으로 나타났다.신한카드 빅데이터센터와 한국은행 제주본부는 '제주 관광객 소비 특성'을 공동으로 분석한 결과 내·외국인 관광객의 카드 이용액은 2조3000억 원으로 전년(1조9000억 원)대비 21% 증가했다고 27일 밝혔다. 이는 전체 제주도민이 사용한 신용카드 사용금액 4조9000억 원의 46.5%에 해당하는 규모다. 특히 외국인 관광객 카드 사용금액이 증가 추세를 보였다. 작년말 외국인 관광객의 카드 사용 금액은 5000억 원으로 제주도내 사용금액에서 차지하는 비중이 2012년 4.2%에서 11%로 세 배 가까이 늘었다. 내국인 관광객의 카드 사용금액은 1조7000억 원으로 나타났다.외국인 관광객 중에서는 중국 관광객 비중이 가장 컸다. 작년 외국인 관광객의 카드 사용금액을 국적별로 보면 중국이 85.9%를 차지했다. 이는 2012년 60%를 차지했던 것보다 20%포인트 이상 확대된 것이다. 이어 태국(2.8%), 미국·대만(2.2%) 순으로 나타났다.중국 관광객은 쇼핑(57.4%)에 가장 많이 카드를 사용하는 것으로 나타났다. 다른 외국인 관광객에 비해 면세점과 화장품 이용비중이 높다는 분석이다.신한카드 빅데이터센터 측은 "도내 화장품 업종 카드매출(금액)의 63.1% 가량을 중국인을 포함한 외국인 관광객이 차지한다"고 설명했다.(자료출처=신한카드 빅데이터센터 ) 또한 조사 결과 제주도 관광객의 개별관광 증가로 신용카드 사용 건당 결제금액이 감소하는 소액화 현상이 나타났다. 제주방문 관광객 중 개별관광객 비중은 2010년 76.9%에서 작년 95.6%로 증가했다.관광객 평균 건당 결제금액을 보면 내국인 관광객은 2012년 6만1000원에서 올해 1분기 4만5000원으로 줄었다. 외국인 역시 같은 기간 22만1000원에서 14만6000원으로 크게 감소했다.신한카드 빅데이터센터 측은 "모든 부분(교통, 숙박, 체험, 음식, 쇼핑)에서 건당 결제금액이 줄어들고 있다"며 "특히 고가 숙소(특급호텔 등)에 비해 저가 숙소 이용이 크게 늘면서 숙박비를 중심으로 결제금액이 소액화되는 추세"라고 설명했다.중국 관광객 역시 내국인이나 다른 외국 외국인 관광객에 비해 특급호텔 이용비중이 높으나, 최근 개별 관광이 늘면서 특급호텔 비중(2012년 86.3%→2015년 57.5%)이 줄고 펜션 등 저가형숙소에 대한 선호도가 높아지는 추세다.한편, 제주 올레길이 제주관광의 아이콘으로 떠오르면서 읍면단위 로컬 지역의 내수경기에도 긍정적 영향을 미친 것으로 나타났다.2013년 대비 지난해 제주 주요 지역 카드이용금액 연평균 증가율을 분석해본 결과 구좌읍(35.5%), 성산읍(32.8%), 서귀동(28.8%), 안덕면(25.7%), 애월읍(24.7%) 순으로 나타났다.신한카드 빅데이터센터 관계자는 "제주 방문 관광객수는 2013년 1000만 명을 돌파했으며 올해는 최단기인 8월에 1000만 명을 돌파했다"며 "최근 제주 관광은 관광형태가 단체관광에서 개별관광 중심으로 단순관광에서 문화체험으로 급속히 변화하고 있다"고 설명했다. #신한카드빅데이터센터 #한국은행 #한국은행제주본부 #중국인관광객 #제주도 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” 08 [이투데이 말투데이] 좌고우면(左顧右眄)/애프터마켓 (10월4일) 09 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 10 [상보] 뉴욕증시, 영국발 훈풍·국채금리 진정에 상승...다우 2.66%↑ 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 금융·증권 최신 뉴스 [특징주] 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 [이시각 상한가] 오픈엣지테크놀로지(▲3150) - 4일 오전 10시10분 공모주 청약일정 한눈에…미래에셋증권, ‘공모주 투자플래너’ 서비스 오픈 삼성증권, ‘상금 8000만원’ 글로벌 실전투자대회 ‘G6 투자 챌린지’ 개최 [테마 리포트]바이오시밀러 관련주 테마 상승세(+5.02%) [테마 리포트]방위산업 관련주 테마 상승세(+5.01%) [Bit코인] 비트코인, 1만9000달러 방어 성공…“2만 달러 돌파 관건” [특징주] 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 신한은행, 채무조정 프로그램 신설ㆍ가계채무조정 확대 [특징주] 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] 발언하는 주호영 국힘 원내대표 마켓 뉴스 특징주 투자전략 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 칩스앤미디어, 인텔 자회사 모빌아이 상장 신청에 강세 F&amp;F, 증권가 호실적 전망에 '상승세' [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 09:59 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.에이프로젠제약 88 3.디아이씨 405 4.일진홀딩스 480 5.KR모터스 75 1.라닉스 1,520 2.오픈엣지테크놀로지 2,500 3.오토앤 2,200 4.칩스앤미디어 3,000 5.유안타제7호스팩 635 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,176,000 +1.17% 이더리움 1,905,000 +1.87% 비트코인 캐시 167,000 -0.6% 리플 656.9 -0.45% 위믹스 2,588 +0.9% 에이다 613.5 -0.05% 이오스 1,696 -0.18% 트론 88.06 -0.97% 스텔라루멘 166.8 -4.14% 비트코인에스브이 69,450 -0.5% 체인링크 10,670 +2.79% 샌드박스 1,195 +1.1% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
-  </si>
-  <si>
-    <t>더민주 제주도당 "오라관광 지하수 개발은 위법" - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 더민주 제주도당 "오라관광 지하수 개발은 위법" 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 도내정가 더민주 제주도당 "오라관광 지하수 개발은 위법" 홍수영 기자 승인 2016.09.06 18:14 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 6일 논평 발표 "토지소유권 따라 지하수 개발·이용권도 이전되는 것 아니다" [제주일보=홍수영 기자] 더불어민주당 제주도당(위원장 김우남)은 6일 논평을 내고 “오라관광단지 개발사업 승인 취소는 지하수 개발·이용 허가를 받은 목적에 따른 이용이 불가능한 경우에 해당한다”며 “지하수 관정의 양도·양수를 통한 사용을 인정하는 것은 법에 위배된다”고 주장했다.더민주 제주도당은 “토지소유권이 이전된다고 해서 허가에 의한 지하수 개발·이용권도 이전되는 것은 아니”라며 “지금이라도 지하수 관정허가를 취소하고 원상복구명령을 통해 개발사업의 이익보다 지하수 자원 보존을 통한 공익과 미래가치의 우위를 분명히 해야한다”고 덧붙였다. 홍수영 기자  gwin1@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, 스마트 관광서비스 플랫폼 구축 사업 착수 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 스마트 관광서비스 플랫폼 구축 사업 착수 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 스마트 관광서비스 플랫폼 구축 사업 착수 김동일 기자 승인 2016.09.11 14:37 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 예산 9억원 확보…전액 국비로 추진 [제주일보=김동일 기자] 제주특별자치도는 개방형 스마트 관광서비스 플랫폼 구축 사업에 착수했다고 11일 밝혔다.이번 사업은 미래창조과학부의 ‘2016년 ICT기반 공공서비스 촉진사업’ 과제로 선정된 데 따른 것으로, 전액 국비(9억원)로 사업이 추진될 예정이다.제주도는 이번 사업 추진에 따라 도내 주요 관광지에 설치된 공공 와이파이와 비콘 접속 정보를 통해 관광객 이동경로와 소피패턴 파악은 물론 고객식별 등으로 최적화된 광고 콘텐츠를 제공할 수 있을 것으로 보고 있다.또 사업이 완료될 시 플랫폼을 활용해 스마트 관광 모바일앱을 개발, 수집·분석된 자료를 바탕으로 과학적인 관광정책을 수립할 수 있을 것으로 전망된다. 김동일 기자  flash@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동일 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>제주도관광협회, 사회복지단체 나눔활동 &lt; 일과 사람들 &lt; 도민광장 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 사회복지단체 나눔활동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 도민광장 일과 사람들 제주도관광협회, 사회복지단체 나눔활동 기자명 제주도민일보 입력 2016.09.08 11:38 수정 2016.09.08 11:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [제주도민일보] 제주도관광협회 사랑나눔봉사단(단장 강인철)은 지난 5일부터 다가오는 민족 고유의 명절 추석을 맞아 도내 사회복지단체인 예향원, 제주케어하우스, 애서원, 성심요양원, 제주요양원, 제주보육원, 다문화가정센터, 늘푸른요양원을 방문해 쌀, 생필품, 휠체어 등을 전달하는 사랑나눔활동을 전개했다. 제주도민일보 domin@jejudomin.co.kr 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>더민주 제주도당 "오라관광 지하수 개발은 위법" - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 더민주 제주도당 "오라관광 지하수 개발은 위법" 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 도내정가 더민주 제주도당 "오라관광 지하수 개발은 위법" 홍수영 기자 승인 2016.09.06 18:14 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 6일 논평 발표 "토지소유권 따라 지하수 개발·이용권도 이전되는 것 아니다" [제주일보=홍수영 기자] 더불어민주당 제주도당(위원장 김우남)은 6일 논평을 내고 “오라관광단지 개발사업 승인 취소는 지하수 개발·이용 허가를 받은 목적에 따른 이용이 불가능한 경우에 해당한다”며 “지하수 관정의 양도·양수를 통한 사용을 인정하는 것은 법에 위배된다”고 주장했다.더민주 제주도당은 “토지소유권이 이전된다고 해서 허가에 의한 지하수 개발·이용권도 이전되는 것은 아니”라며 “지금이라도 지하수 관정허가를 취소하고 원상복구명령을 통해 개발사업의 이익보다 지하수 자원 보존을 통한 공익과 미래가치의 우위를 분명히 해야한다”고 덧붙였다. 홍수영 기자  gwin1@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, 스마트 관광서비스 플랫폼 구축 사업 착수 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:20 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도, 스마트 관광서비스 플랫폼 구축 사업 착수 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 스마트 관광서비스 플랫폼 구축 사업 착수 김동일 기자 승인 2016.09.11 14:37 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 예산 9억원 확보…전액 국비로 추진 [제주일보=김동일 기자] 제주특별자치도는 개방형 스마트 관광서비스 플랫폼 구축 사업에 착수했다고 11일 밝혔다.이번 사업은 미래창조과학부의 ‘2016년 ICT기반 공공서비스 촉진사업’ 과제로 선정된 데 따른 것으로, 전액 국비(9억원)로 사업이 추진될 예정이다.제주도는 이번 사업 추진에 따라 도내 주요 관광지에 설치된 공공 와이파이와 비콘 접속 정보를 통해 관광객 이동경로와 소피패턴 파악은 물론 고객식별 등으로 최적화된 광고 콘텐츠를 제공할 수 있을 것으로 보고 있다.또 사업이 완료될 시 플랫폼을 활용해 스마트 관광 모바일앱을 개발, 수집·분석된 자료를 바탕으로 과학적인 관광정책을 수립할 수 있을 것으로 전망된다. 김동일 기자  flash@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 김동일 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 8외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -437,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -491,9 +653,6 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -502,9 +661,6 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -514,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +681,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +714,325 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
